--- a/Export/Test.xlsx
+++ b/Export/Test.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
+  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <x:workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCNI\Desktop\공부\UiPath\001_ACME\Export\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView firstSheet="0" activeTab="0"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11625" firstSheet="0" activeTab="2"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Raw1" sheetId="2" r:id="rId2"/>
-    <x:sheet name="Raw2" sheetId="5" r:id="rId5"/>
-    <x:sheet name="Client" sheetId="7" r:id="rId7"/>
-    <x:sheet name="Hash" sheetId="8" r:id="rId8"/>
+    <x:sheet name="Raw1" sheetId="2" r:id="rId1"/>
+    <x:sheet name="Raw2" sheetId="5" r:id="rId2"/>
+    <x:sheet name="Client" sheetId="7" r:id="rId3"/>
+    <x:sheet name="Hash" sheetId="8" r:id="rId4"/>
   </x:sheets>
   <x:definedNames/>
-  <x:calcPr calcId="125725"/>
+  <x:calcPr calcId="0"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="453">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="439">
   <x:si>
     <x:t>Actions</x:t>
   </x:si>
@@ -1222,18 +1228,12 @@
     <x:t>Italy</x:t>
   </x:si>
   <x:si>
-    <x:t>7b3377d3426500876741838c26f83b332c54f4c0</x:t>
-  </x:si>
-  <x:si>
     <x:t>KJ93404</x:t>
   </x:si>
   <x:si>
     <x:t>Garret Reising</x:t>
   </x:si>
   <x:si>
-    <x:t>dafc9516e64e98e9bfd379d9e5b26e77f715cfcb</x:t>
-  </x:si>
-  <x:si>
     <x:t>FY17206</x:t>
   </x:si>
   <x:si>
@@ -1243,18 +1243,12 @@
     <x:t>Romania</x:t>
   </x:si>
   <x:si>
-    <x:t>7da2444497b885594cd80f066454d5d9e349f78a</x:t>
-  </x:si>
-  <x:si>
     <x:t>TD88219</x:t>
   </x:si>
   <x:si>
     <x:t>Caroll Eisenmann</x:t>
   </x:si>
   <x:si>
-    <x:t>a40b69d1f585e55121c27bed02b83b1cbe5e42e4</x:t>
-  </x:si>
-  <x:si>
     <x:t>AD55686</x:t>
   </x:si>
   <x:si>
@@ -1264,36 +1258,24 @@
     <x:t>Germany</x:t>
   </x:si>
   <x:si>
-    <x:t>1a36fea23eb49713941e5ea93a388a4ace8d1ff0</x:t>
-  </x:si>
-  <x:si>
     <x:t>HR70321</x:t>
   </x:si>
   <x:si>
     <x:t>Clement Paulette</x:t>
   </x:si>
   <x:si>
-    <x:t>31f022370f7b2c40ad55d1c4b8557d393e9c4270</x:t>
-  </x:si>
-  <x:si>
     <x:t>AZ79829</x:t>
   </x:si>
   <x:si>
     <x:t>Marylou Kenworthy</x:t>
   </x:si>
   <x:si>
-    <x:t>07e7c66179907494b3c4fbcadcc5bfc0c2399550</x:t>
-  </x:si>
-  <x:si>
     <x:t>PW19167</x:t>
   </x:si>
   <x:si>
     <x:t>Lavinia Froehlich</x:t>
   </x:si>
   <x:si>
-    <x:t>1b9205ee55ce7cf677036eab147579d4f22d14db</x:t>
-  </x:si>
-  <x:si>
     <x:t>RN58561</x:t>
   </x:si>
   <x:si>
@@ -1303,95 +1285,82 @@
     <x:t>France</x:t>
   </x:si>
   <x:si>
-    <x:t>ff9d18bca9f9df98e7d4a1fbd24257ceaf838c88</x:t>
-  </x:si>
-  <x:si>
     <x:t>FT44139</x:t>
   </x:si>
   <x:si>
     <x:t>Allan Camara</x:t>
   </x:si>
   <x:si>
-    <x:t>ce2df4044c200f94c8dcdb14e9a1191085fc912a</x:t>
-  </x:si>
-  <x:si>
     <x:t>FP75053</x:t>
   </x:si>
   <x:si>
     <x:t>Bud Baril</x:t>
   </x:si>
   <x:si>
-    <x:t>c641355d0f7fafdd6037fb19303c8363794c6ae3</x:t>
-  </x:si>
-  <x:si>
     <x:t>KK58395</x:t>
   </x:si>
   <x:si>
     <x:t>Fritz Balke</x:t>
   </x:si>
   <x:si>
-    <x:t>e9ad2458dc3449ffbd6964d0c09261e646be663c</x:t>
-  </x:si>
-  <x:si>
     <x:t>BA92200</x:t>
   </x:si>
   <x:si>
     <x:t>Mayra Monzon</x:t>
   </x:si>
   <x:si>
-    <x:t>34f129c443ddd56762af596fa30ff42aa6a6b149</x:t>
-  </x:si>
-  <x:si>
     <x:t>AD88069</x:t>
   </x:si>
   <x:si>
     <x:t>Craig Tober</x:t>
   </x:si>
   <x:si>
-    <x:t>1c514c4689f77b487ebcebb3a092bbbff02c7fef</x:t>
-  </x:si>
-  <x:si>
     <x:t>EQ75283</x:t>
   </x:si>
   <x:si>
     <x:t>Kizzie Kohen</x:t>
   </x:si>
   <x:si>
-    <x:t>967ecf066922d2a101fbbe41422b3e0b8aad7f33</x:t>
-  </x:si>
-  <x:si>
     <x:t>XY37806</x:t>
   </x:si>
   <x:si>
     <x:t>Eloy Sandoz</x:t>
   </x:si>
   <x:si>
-    <x:t>This website uses cookies to ensure you get the best experience on www.sha1-online.com website, to counteract fraud and abuse and to generate aggregate reports for displaying personalized and non-personalized ads. Learn more</x:t>
-  </x:si>
-  <x:si>
     <x:t>RI52540</x:t>
   </x:si>
   <x:si>
     <x:t>Camilla Escarcega</x:t>
   </x:si>
   <x:si>
-    <x:t>82084e91cddddb7bd5284eac0b0be9f79ee80dc4</x:t>
+    <x:t>988234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>839140 RON</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0a73a45c33874314001e0701038260ea6eb19268</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2">
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="2" x14ac:knownFonts="1">
     <x:font>
-      <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
       <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:sz val="8"/>
+      <x:name val="돋움"/>
+      <x:family val="3"/>
+      <x:charset val="129"/>
     </x:font>
   </x:fonts>
   <x:fills count="2">
@@ -1403,38 +1372,32 @@
     </x:fill>
   </x:fills>
   <x:borders count="1">
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </x:cellStyleXfs>
   <x:cellXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </x:cellXfs>
   <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <x:cellStyle name="표준" xfId="0" builtinId="0"/>
   </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </x:ext>
+  </x:extLst>
 </x:styleSheet>
 </file>
 
@@ -1722,7 +1685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -1730,9 +1693,9 @@
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:sheetData>
-    <x:row r="1" spans="1:7">
+    <x:row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -1755,7 +1718,7 @@
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:7">
+    <x:row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -1775,7 +1738,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:7">
+    <x:row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B3" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
@@ -1795,7 +1758,7 @@
         <x:v>15</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:7">
+    <x:row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B4" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
@@ -1815,7 +1778,7 @@
         <x:v>20</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:7">
+    <x:row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B5" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
@@ -1835,7 +1798,7 @@
         <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:7">
+    <x:row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B6" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
@@ -1855,7 +1818,7 @@
         <x:v>26</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:7">
+    <x:row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B7" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
@@ -1875,7 +1838,7 @@
         <x:v>31</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:7">
+    <x:row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B8" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
@@ -1895,7 +1858,7 @@
         <x:v>34</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:7">
+    <x:row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B9" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
@@ -1915,7 +1878,7 @@
         <x:v>37</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:7">
+    <x:row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B10" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
@@ -1935,7 +1898,7 @@
         <x:v>40</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:7">
+    <x:row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B11" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
@@ -1955,7 +1918,7 @@
         <x:v>46</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:7">
+    <x:row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B12" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
@@ -1975,7 +1938,7 @@
         <x:v>49</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:7">
+    <x:row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B13" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
@@ -1995,7 +1958,7 @@
         <x:v>54</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:7">
+    <x:row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B14" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
@@ -2015,7 +1978,7 @@
         <x:v>57</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:7">
+    <x:row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B15" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
@@ -2035,7 +1998,7 @@
         <x:v>60</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:7">
+    <x:row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B16" s="0" t="s">
         <x:v>61</x:v>
       </x:c>
@@ -2055,7 +2018,7 @@
         <x:v>63</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:7">
+    <x:row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B17" s="0" t="s">
         <x:v>64</x:v>
       </x:c>
@@ -2075,7 +2038,7 @@
         <x:v>66</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:7">
+    <x:row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B18" s="0" t="s">
         <x:v>67</x:v>
       </x:c>
@@ -2095,7 +2058,7 @@
         <x:v>69</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:7">
+    <x:row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B19" s="0" t="s">
         <x:v>70</x:v>
       </x:c>
@@ -2115,7 +2078,7 @@
         <x:v>72</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:7">
+    <x:row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B20" s="0" t="s">
         <x:v>73</x:v>
       </x:c>
@@ -2135,7 +2098,7 @@
         <x:v>75</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:7">
+    <x:row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B21" s="0" t="s">
         <x:v>76</x:v>
       </x:c>
@@ -2155,7 +2118,7 @@
         <x:v>78</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:7">
+    <x:row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B22" s="0" t="s">
         <x:v>79</x:v>
       </x:c>
@@ -2175,7 +2138,7 @@
         <x:v>81</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:7">
+    <x:row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B23" s="0" t="s">
         <x:v>82</x:v>
       </x:c>
@@ -2195,7 +2158,7 @@
         <x:v>84</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:7">
+    <x:row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B24" s="0" t="s">
         <x:v>85</x:v>
       </x:c>
@@ -2215,7 +2178,7 @@
         <x:v>87</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:7">
+    <x:row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B25" s="0" t="s">
         <x:v>88</x:v>
       </x:c>
@@ -2235,7 +2198,7 @@
         <x:v>90</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:7">
+    <x:row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B26" s="0" t="s">
         <x:v>91</x:v>
       </x:c>
@@ -2255,7 +2218,7 @@
         <x:v>93</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:7">
+    <x:row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B27" s="0" t="s">
         <x:v>94</x:v>
       </x:c>
@@ -2275,7 +2238,7 @@
         <x:v>96</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:7">
+    <x:row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B28" s="0" t="s">
         <x:v>97</x:v>
       </x:c>
@@ -2295,7 +2258,7 @@
         <x:v>99</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:7">
+    <x:row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B29" s="0" t="s">
         <x:v>100</x:v>
       </x:c>
@@ -2315,7 +2278,7 @@
         <x:v>102</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:7">
+    <x:row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B30" s="0" t="s">
         <x:v>103</x:v>
       </x:c>
@@ -2335,7 +2298,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:7">
+    <x:row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B31" s="0" t="s">
         <x:v>106</x:v>
       </x:c>
@@ -2355,7 +2318,7 @@
         <x:v>108</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:7">
+    <x:row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B32" s="0" t="s">
         <x:v>109</x:v>
       </x:c>
@@ -2375,7 +2338,7 @@
         <x:v>111</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:7">
+    <x:row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B33" s="0" t="s">
         <x:v>112</x:v>
       </x:c>
@@ -2395,7 +2358,7 @@
         <x:v>114</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:7">
+    <x:row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B34" s="0" t="s">
         <x:v>115</x:v>
       </x:c>
@@ -2415,7 +2378,7 @@
         <x:v>117</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:7">
+    <x:row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B35" s="0" t="s">
         <x:v>118</x:v>
       </x:c>
@@ -2435,7 +2398,7 @@
         <x:v>120</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:7">
+    <x:row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B36" s="0" t="s">
         <x:v>121</x:v>
       </x:c>
@@ -2455,7 +2418,7 @@
         <x:v>123</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:7">
+    <x:row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B37" s="0" t="s">
         <x:v>124</x:v>
       </x:c>
@@ -2475,7 +2438,7 @@
         <x:v>126</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:7">
+    <x:row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B38" s="0" t="s">
         <x:v>127</x:v>
       </x:c>
@@ -2495,7 +2458,7 @@
         <x:v>129</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:7">
+    <x:row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B39" s="0" t="s">
         <x:v>130</x:v>
       </x:c>
@@ -2515,7 +2478,7 @@
         <x:v>132</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:7">
+    <x:row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B40" s="0" t="s">
         <x:v>133</x:v>
       </x:c>
@@ -2535,7 +2498,7 @@
         <x:v>135</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:7">
+    <x:row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B41" s="0" t="s">
         <x:v>136</x:v>
       </x:c>
@@ -2555,7 +2518,7 @@
         <x:v>138</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:7">
+    <x:row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B42" s="0" t="s">
         <x:v>139</x:v>
       </x:c>
@@ -2575,7 +2538,7 @@
         <x:v>141</x:v>
       </x:c>
     </x:row>
-    <x:row r="43" spans="1:7">
+    <x:row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B43" s="0" t="s">
         <x:v>142</x:v>
       </x:c>
@@ -2595,7 +2558,7 @@
         <x:v>144</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:7">
+    <x:row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B44" s="0" t="s">
         <x:v>145</x:v>
       </x:c>
@@ -2615,7 +2578,7 @@
         <x:v>147</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:7">
+    <x:row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B45" s="0" t="s">
         <x:v>148</x:v>
       </x:c>
@@ -2635,7 +2598,7 @@
         <x:v>150</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:7">
+    <x:row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B46" s="0" t="s">
         <x:v>151</x:v>
       </x:c>
@@ -2655,7 +2618,7 @@
         <x:v>153</x:v>
       </x:c>
     </x:row>
-    <x:row r="47" spans="1:7">
+    <x:row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B47" s="0" t="s">
         <x:v>154</x:v>
       </x:c>
@@ -2675,7 +2638,7 @@
         <x:v>156</x:v>
       </x:c>
     </x:row>
-    <x:row r="48" spans="1:7">
+    <x:row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B48" s="0" t="s">
         <x:v>157</x:v>
       </x:c>
@@ -2695,7 +2658,7 @@
         <x:v>159</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:7">
+    <x:row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B49" s="0" t="s">
         <x:v>160</x:v>
       </x:c>
@@ -2715,7 +2678,7 @@
         <x:v>162</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:7">
+    <x:row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B50" s="0" t="s">
         <x:v>163</x:v>
       </x:c>
@@ -2735,7 +2698,7 @@
         <x:v>165</x:v>
       </x:c>
     </x:row>
-    <x:row r="51" spans="1:7">
+    <x:row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B51" s="0" t="s">
         <x:v>166</x:v>
       </x:c>
@@ -2755,7 +2718,7 @@
         <x:v>168</x:v>
       </x:c>
     </x:row>
-    <x:row r="52" spans="1:7">
+    <x:row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B52" s="0" t="s">
         <x:v>169</x:v>
       </x:c>
@@ -2775,7 +2738,7 @@
         <x:v>171</x:v>
       </x:c>
     </x:row>
-    <x:row r="53" spans="1:7">
+    <x:row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B53" s="0" t="s">
         <x:v>172</x:v>
       </x:c>
@@ -2795,7 +2758,7 @@
         <x:v>174</x:v>
       </x:c>
     </x:row>
-    <x:row r="54" spans="1:7">
+    <x:row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B54" s="0" t="s">
         <x:v>175</x:v>
       </x:c>
@@ -2815,7 +2778,7 @@
         <x:v>177</x:v>
       </x:c>
     </x:row>
-    <x:row r="55" spans="1:7">
+    <x:row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B55" s="0" t="s">
         <x:v>178</x:v>
       </x:c>
@@ -2835,7 +2798,7 @@
         <x:v>180</x:v>
       </x:c>
     </x:row>
-    <x:row r="56" spans="1:7">
+    <x:row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B56" s="0" t="s">
         <x:v>181</x:v>
       </x:c>
@@ -2855,7 +2818,7 @@
         <x:v>183</x:v>
       </x:c>
     </x:row>
-    <x:row r="57" spans="1:7">
+    <x:row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B57" s="0" t="s">
         <x:v>184</x:v>
       </x:c>
@@ -2875,7 +2838,7 @@
         <x:v>186</x:v>
       </x:c>
     </x:row>
-    <x:row r="58" spans="1:7">
+    <x:row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B58" s="0" t="s">
         <x:v>187</x:v>
       </x:c>
@@ -2895,7 +2858,7 @@
         <x:v>78</x:v>
       </x:c>
     </x:row>
-    <x:row r="59" spans="1:7">
+    <x:row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B59" s="0" t="s">
         <x:v>189</x:v>
       </x:c>
@@ -2915,7 +2878,7 @@
         <x:v>191</x:v>
       </x:c>
     </x:row>
-    <x:row r="60" spans="1:7">
+    <x:row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B60" s="0" t="s">
         <x:v>192</x:v>
       </x:c>
@@ -2935,7 +2898,7 @@
         <x:v>194</x:v>
       </x:c>
     </x:row>
-    <x:row r="61" spans="1:7">
+    <x:row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B61" s="0" t="s">
         <x:v>195</x:v>
       </x:c>
@@ -2955,7 +2918,7 @@
         <x:v>197</x:v>
       </x:c>
     </x:row>
-    <x:row r="62" spans="1:7">
+    <x:row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B62" s="0" t="s">
         <x:v>198</x:v>
       </x:c>
@@ -2975,7 +2938,7 @@
         <x:v>200</x:v>
       </x:c>
     </x:row>
-    <x:row r="63" spans="1:7">
+    <x:row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B63" s="0" t="s">
         <x:v>201</x:v>
       </x:c>
@@ -2995,7 +2958,7 @@
         <x:v>203</x:v>
       </x:c>
     </x:row>
-    <x:row r="64" spans="1:7">
+    <x:row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B64" s="0" t="s">
         <x:v>204</x:v>
       </x:c>
@@ -3015,7 +2978,7 @@
         <x:v>206</x:v>
       </x:c>
     </x:row>
-    <x:row r="65" spans="1:7">
+    <x:row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B65" s="0" t="s">
         <x:v>207</x:v>
       </x:c>
@@ -3035,7 +2998,7 @@
         <x:v>209</x:v>
       </x:c>
     </x:row>
-    <x:row r="66" spans="1:7">
+    <x:row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B66" s="0" t="s">
         <x:v>210</x:v>
       </x:c>
@@ -3055,7 +3018,7 @@
         <x:v>212</x:v>
       </x:c>
     </x:row>
-    <x:row r="67" spans="1:7">
+    <x:row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B67" s="0" t="s">
         <x:v>213</x:v>
       </x:c>
@@ -3075,7 +3038,7 @@
         <x:v>215</x:v>
       </x:c>
     </x:row>
-    <x:row r="68" spans="1:7">
+    <x:row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B68" s="0" t="s">
         <x:v>216</x:v>
       </x:c>
@@ -3095,7 +3058,7 @@
         <x:v>218</x:v>
       </x:c>
     </x:row>
-    <x:row r="69" spans="1:7">
+    <x:row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B69" s="0" t="s">
         <x:v>219</x:v>
       </x:c>
@@ -3115,7 +3078,7 @@
         <x:v>221</x:v>
       </x:c>
     </x:row>
-    <x:row r="70" spans="1:7">
+    <x:row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B70" s="0" t="s">
         <x:v>222</x:v>
       </x:c>
@@ -3135,7 +3098,7 @@
         <x:v>224</x:v>
       </x:c>
     </x:row>
-    <x:row r="71" spans="1:7">
+    <x:row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B71" s="0" t="s">
         <x:v>225</x:v>
       </x:c>
@@ -3155,7 +3118,7 @@
         <x:v>227</x:v>
       </x:c>
     </x:row>
-    <x:row r="72" spans="1:7">
+    <x:row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B72" s="0" t="s">
         <x:v>228</x:v>
       </x:c>
@@ -3175,7 +3138,7 @@
         <x:v>230</x:v>
       </x:c>
     </x:row>
-    <x:row r="73" spans="1:7">
+    <x:row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B73" s="0" t="s">
         <x:v>231</x:v>
       </x:c>
@@ -3195,7 +3158,7 @@
         <x:v>233</x:v>
       </x:c>
     </x:row>
-    <x:row r="74" spans="1:7">
+    <x:row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B74" s="0" t="s">
         <x:v>234</x:v>
       </x:c>
@@ -3215,7 +3178,7 @@
         <x:v>236</x:v>
       </x:c>
     </x:row>
-    <x:row r="75" spans="1:7">
+    <x:row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B75" s="0" t="s">
         <x:v>237</x:v>
       </x:c>
@@ -3235,7 +3198,7 @@
         <x:v>239</x:v>
       </x:c>
     </x:row>
-    <x:row r="76" spans="1:7">
+    <x:row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B76" s="0" t="s">
         <x:v>240</x:v>
       </x:c>
@@ -3255,7 +3218,7 @@
         <x:v>242</x:v>
       </x:c>
     </x:row>
-    <x:row r="77" spans="1:7">
+    <x:row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B77" s="0" t="s">
         <x:v>243</x:v>
       </x:c>
@@ -3275,7 +3238,7 @@
         <x:v>245</x:v>
       </x:c>
     </x:row>
-    <x:row r="78" spans="1:7">
+    <x:row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B78" s="0" t="s">
         <x:v>246</x:v>
       </x:c>
@@ -3295,7 +3258,7 @@
         <x:v>248</x:v>
       </x:c>
     </x:row>
-    <x:row r="79" spans="1:7">
+    <x:row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B79" s="0" t="s">
         <x:v>249</x:v>
       </x:c>
@@ -3315,7 +3278,7 @@
         <x:v>251</x:v>
       </x:c>
     </x:row>
-    <x:row r="80" spans="1:7">
+    <x:row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B80" s="0" t="s">
         <x:v>252</x:v>
       </x:c>
@@ -3335,7 +3298,7 @@
         <x:v>254</x:v>
       </x:c>
     </x:row>
-    <x:row r="81" spans="1:7">
+    <x:row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B81" s="0" t="s">
         <x:v>255</x:v>
       </x:c>
@@ -3355,7 +3318,7 @@
         <x:v>257</x:v>
       </x:c>
     </x:row>
-    <x:row r="82" spans="1:7">
+    <x:row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B82" s="0" t="s">
         <x:v>258</x:v>
       </x:c>
@@ -3375,7 +3338,7 @@
         <x:v>260</x:v>
       </x:c>
     </x:row>
-    <x:row r="83" spans="1:7">
+    <x:row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B83" s="0" t="s">
         <x:v>261</x:v>
       </x:c>
@@ -3395,7 +3358,7 @@
         <x:v>263</x:v>
       </x:c>
     </x:row>
-    <x:row r="84" spans="1:7">
+    <x:row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B84" s="0" t="s">
         <x:v>264</x:v>
       </x:c>
@@ -3415,7 +3378,7 @@
         <x:v>266</x:v>
       </x:c>
     </x:row>
-    <x:row r="85" spans="1:7">
+    <x:row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B85" s="0" t="s">
         <x:v>267</x:v>
       </x:c>
@@ -3435,7 +3398,7 @@
         <x:v>269</x:v>
       </x:c>
     </x:row>
-    <x:row r="86" spans="1:7">
+    <x:row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B86" s="0" t="s">
         <x:v>270</x:v>
       </x:c>
@@ -3455,7 +3418,7 @@
         <x:v>272</x:v>
       </x:c>
     </x:row>
-    <x:row r="87" spans="1:7">
+    <x:row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B87" s="0" t="s">
         <x:v>273</x:v>
       </x:c>
@@ -3475,7 +3438,7 @@
         <x:v>275</x:v>
       </x:c>
     </x:row>
-    <x:row r="88" spans="1:7">
+    <x:row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B88" s="0" t="s">
         <x:v>276</x:v>
       </x:c>
@@ -3495,7 +3458,7 @@
         <x:v>278</x:v>
       </x:c>
     </x:row>
-    <x:row r="89" spans="1:7">
+    <x:row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B89" s="0" t="s">
         <x:v>279</x:v>
       </x:c>
@@ -3515,7 +3478,7 @@
         <x:v>281</x:v>
       </x:c>
     </x:row>
-    <x:row r="90" spans="1:7">
+    <x:row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B90" s="0" t="s">
         <x:v>282</x:v>
       </x:c>
@@ -3535,7 +3498,7 @@
         <x:v>284</x:v>
       </x:c>
     </x:row>
-    <x:row r="91" spans="1:7">
+    <x:row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B91" s="0" t="s">
         <x:v>285</x:v>
       </x:c>
@@ -3555,7 +3518,7 @@
         <x:v>287</x:v>
       </x:c>
     </x:row>
-    <x:row r="92" spans="1:7">
+    <x:row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B92" s="0" t="s">
         <x:v>288</x:v>
       </x:c>
@@ -3575,7 +3538,7 @@
         <x:v>290</x:v>
       </x:c>
     </x:row>
-    <x:row r="93" spans="1:7">
+    <x:row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B93" s="0" t="s">
         <x:v>291</x:v>
       </x:c>
@@ -3595,7 +3558,7 @@
         <x:v>293</x:v>
       </x:c>
     </x:row>
-    <x:row r="94" spans="1:7">
+    <x:row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B94" s="0" t="s">
         <x:v>294</x:v>
       </x:c>
@@ -3615,7 +3578,7 @@
         <x:v>296</x:v>
       </x:c>
     </x:row>
-    <x:row r="95" spans="1:7">
+    <x:row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B95" s="0" t="s">
         <x:v>297</x:v>
       </x:c>
@@ -3635,7 +3598,7 @@
         <x:v>299</x:v>
       </x:c>
     </x:row>
-    <x:row r="96" spans="1:7">
+    <x:row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B96" s="0" t="s">
         <x:v>300</x:v>
       </x:c>
@@ -3655,7 +3618,7 @@
         <x:v>302</x:v>
       </x:c>
     </x:row>
-    <x:row r="97" spans="1:7">
+    <x:row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B97" s="0" t="s">
         <x:v>303</x:v>
       </x:c>
@@ -3675,7 +3638,7 @@
         <x:v>305</x:v>
       </x:c>
     </x:row>
-    <x:row r="98" spans="1:7">
+    <x:row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B98" s="0" t="s">
         <x:v>306</x:v>
       </x:c>
@@ -3695,7 +3658,7 @@
         <x:v>308</x:v>
       </x:c>
     </x:row>
-    <x:row r="99" spans="1:7">
+    <x:row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B99" s="0" t="s">
         <x:v>309</x:v>
       </x:c>
@@ -3715,7 +3678,7 @@
         <x:v>311</x:v>
       </x:c>
     </x:row>
-    <x:row r="100" spans="1:7">
+    <x:row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B100" s="0" t="s">
         <x:v>312</x:v>
       </x:c>
@@ -3735,7 +3698,7 @@
         <x:v>314</x:v>
       </x:c>
     </x:row>
-    <x:row r="101" spans="1:7">
+    <x:row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B101" s="0" t="s">
         <x:v>315</x:v>
       </x:c>
@@ -3755,7 +3718,7 @@
         <x:v>317</x:v>
       </x:c>
     </x:row>
-    <x:row r="102" spans="1:7">
+    <x:row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B102" s="0" t="s">
         <x:v>318</x:v>
       </x:c>
@@ -3775,7 +3738,7 @@
         <x:v>320</x:v>
       </x:c>
     </x:row>
-    <x:row r="103" spans="1:7">
+    <x:row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B103" s="0" t="s">
         <x:v>321</x:v>
       </x:c>
@@ -3795,7 +3758,7 @@
         <x:v>323</x:v>
       </x:c>
     </x:row>
-    <x:row r="104" spans="1:7">
+    <x:row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B104" s="0" t="s">
         <x:v>324</x:v>
       </x:c>
@@ -3815,7 +3778,7 @@
         <x:v>326</x:v>
       </x:c>
     </x:row>
-    <x:row r="105" spans="1:7">
+    <x:row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B105" s="0" t="s">
         <x:v>327</x:v>
       </x:c>
@@ -3835,7 +3798,7 @@
         <x:v>329</x:v>
       </x:c>
     </x:row>
-    <x:row r="106" spans="1:7">
+    <x:row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B106" s="0" t="s">
         <x:v>330</x:v>
       </x:c>
@@ -3855,7 +3818,7 @@
         <x:v>332</x:v>
       </x:c>
     </x:row>
-    <x:row r="107" spans="1:7">
+    <x:row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B107" s="0" t="s">
         <x:v>333</x:v>
       </x:c>
@@ -3875,7 +3838,7 @@
         <x:v>335</x:v>
       </x:c>
     </x:row>
-    <x:row r="108" spans="1:7">
+    <x:row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B108" s="0" t="s">
         <x:v>336</x:v>
       </x:c>
@@ -3895,7 +3858,7 @@
         <x:v>338</x:v>
       </x:c>
     </x:row>
-    <x:row r="109" spans="1:7">
+    <x:row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B109" s="0" t="s">
         <x:v>339</x:v>
       </x:c>
@@ -3915,7 +3878,7 @@
         <x:v>341</x:v>
       </x:c>
     </x:row>
-    <x:row r="110" spans="1:7">
+    <x:row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B110" s="0" t="s">
         <x:v>342</x:v>
       </x:c>
@@ -3935,7 +3898,7 @@
         <x:v>344</x:v>
       </x:c>
     </x:row>
-    <x:row r="111" spans="1:7">
+    <x:row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B111" s="0" t="s">
         <x:v>345</x:v>
       </x:c>
@@ -3955,7 +3918,7 @@
         <x:v>275</x:v>
       </x:c>
     </x:row>
-    <x:row r="112" spans="1:7">
+    <x:row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B112" s="0" t="s">
         <x:v>347</x:v>
       </x:c>
@@ -3975,7 +3938,7 @@
         <x:v>349</x:v>
       </x:c>
     </x:row>
-    <x:row r="113" spans="1:7">
+    <x:row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B113" s="0" t="s">
         <x:v>350</x:v>
       </x:c>
@@ -3995,7 +3958,7 @@
         <x:v>352</x:v>
       </x:c>
     </x:row>
-    <x:row r="114" spans="1:7">
+    <x:row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B114" s="0" t="s">
         <x:v>353</x:v>
       </x:c>
@@ -4015,7 +3978,7 @@
         <x:v>355</x:v>
       </x:c>
     </x:row>
-    <x:row r="115" spans="1:7">
+    <x:row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B115" s="0" t="s">
         <x:v>356</x:v>
       </x:c>
@@ -4035,7 +3998,7 @@
         <x:v>358</x:v>
       </x:c>
     </x:row>
-    <x:row r="116" spans="1:7">
+    <x:row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B116" s="0" t="s">
         <x:v>359</x:v>
       </x:c>
@@ -4055,7 +4018,7 @@
         <x:v>57</x:v>
       </x:c>
     </x:row>
-    <x:row r="117" spans="1:7">
+    <x:row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B117" s="0" t="s">
         <x:v>361</x:v>
       </x:c>
@@ -4075,7 +4038,7 @@
         <x:v>363</x:v>
       </x:c>
     </x:row>
-    <x:row r="118" spans="1:7">
+    <x:row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B118" s="0" t="s">
         <x:v>364</x:v>
       </x:c>
@@ -4095,7 +4058,7 @@
         <x:v>366</x:v>
       </x:c>
     </x:row>
-    <x:row r="119" spans="1:7">
+    <x:row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B119" s="0" t="s">
         <x:v>367</x:v>
       </x:c>
@@ -4115,7 +4078,7 @@
         <x:v>369</x:v>
       </x:c>
     </x:row>
-    <x:row r="120" spans="1:7">
+    <x:row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B120" s="0" t="s">
         <x:v>370</x:v>
       </x:c>
@@ -4135,7 +4098,7 @@
         <x:v>372</x:v>
       </x:c>
     </x:row>
-    <x:row r="121" spans="1:7">
+    <x:row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B121" s="0" t="s">
         <x:v>373</x:v>
       </x:c>
@@ -4155,7 +4118,7 @@
         <x:v>375</x:v>
       </x:c>
     </x:row>
-    <x:row r="122" spans="1:7">
+    <x:row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B122" s="0" t="s">
         <x:v>376</x:v>
       </x:c>
@@ -4175,7 +4138,7 @@
         <x:v>378</x:v>
       </x:c>
     </x:row>
-    <x:row r="123" spans="1:7">
+    <x:row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B123" s="0" t="s">
         <x:v>379</x:v>
       </x:c>
@@ -4195,7 +4158,7 @@
         <x:v>381</x:v>
       </x:c>
     </x:row>
-    <x:row r="124" spans="1:7">
+    <x:row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B124" s="0" t="s">
         <x:v>382</x:v>
       </x:c>
@@ -4215,7 +4178,7 @@
         <x:v>384</x:v>
       </x:c>
     </x:row>
-    <x:row r="125" spans="1:7">
+    <x:row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B125" s="0" t="s">
         <x:v>385</x:v>
       </x:c>
@@ -4235,7 +4198,7 @@
         <x:v>387</x:v>
       </x:c>
     </x:row>
-    <x:row r="126" spans="1:7">
+    <x:row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B126" s="0" t="s">
         <x:v>388</x:v>
       </x:c>
@@ -4255,7 +4218,7 @@
         <x:v>390</x:v>
       </x:c>
     </x:row>
-    <x:row r="127" spans="1:7">
+    <x:row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <x:c r="B127" s="0" t="s">
         <x:v>391</x:v>
       </x:c>
@@ -4276,6 +4239,7 @@
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:phoneticPr fontId="1" type="noConversion"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
@@ -4285,7 +4249,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -4293,9 +4257,9 @@
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:sheetData>
-    <x:row r="1" spans="1:11">
+    <x:row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -4330,7 +4294,7 @@
         <x:v>397</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:11">
+    <x:row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -4350,7 +4314,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:11">
+    <x:row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B3" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
@@ -4370,7 +4334,7 @@
         <x:v>15</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:11">
+    <x:row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B4" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
@@ -4390,7 +4354,7 @@
         <x:v>20</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:11">
+    <x:row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B5" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
@@ -4410,7 +4374,7 @@
         <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:11">
+    <x:row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B6" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
@@ -4430,7 +4394,7 @@
         <x:v>26</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:11">
+    <x:row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B7" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
@@ -4450,7 +4414,7 @@
         <x:v>31</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:11">
+    <x:row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B8" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
@@ -4470,7 +4434,7 @@
         <x:v>34</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:11">
+    <x:row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B9" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
@@ -4490,7 +4454,7 @@
         <x:v>37</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:11">
+    <x:row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B10" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
@@ -4510,7 +4474,7 @@
         <x:v>40</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:11">
+    <x:row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B11" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
@@ -4530,7 +4494,7 @@
         <x:v>46</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:11">
+    <x:row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B12" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
@@ -4550,7 +4514,7 @@
         <x:v>49</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:11">
+    <x:row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B13" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
@@ -4570,7 +4534,7 @@
         <x:v>54</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:11">
+    <x:row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B14" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
@@ -4590,7 +4554,7 @@
         <x:v>57</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:11">
+    <x:row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B15" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
@@ -4610,7 +4574,7 @@
         <x:v>60</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:11">
+    <x:row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B16" s="0" t="s">
         <x:v>61</x:v>
       </x:c>
@@ -4630,7 +4594,7 @@
         <x:v>63</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:11">
+    <x:row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B17" s="0" t="s">
         <x:v>64</x:v>
       </x:c>
@@ -4650,7 +4614,7 @@
         <x:v>66</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:11">
+    <x:row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B18" s="0" t="s">
         <x:v>67</x:v>
       </x:c>
@@ -4670,7 +4634,7 @@
         <x:v>69</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:11">
+    <x:row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B19" s="0" t="s">
         <x:v>70</x:v>
       </x:c>
@@ -4690,7 +4654,7 @@
         <x:v>72</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:11">
+    <x:row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B20" s="0" t="s">
         <x:v>73</x:v>
       </x:c>
@@ -4710,7 +4674,7 @@
         <x:v>75</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:11">
+    <x:row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B21" s="0" t="s">
         <x:v>76</x:v>
       </x:c>
@@ -4730,7 +4694,7 @@
         <x:v>78</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:11">
+    <x:row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B22" s="0" t="s">
         <x:v>79</x:v>
       </x:c>
@@ -4750,7 +4714,7 @@
         <x:v>81</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:11">
+    <x:row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B23" s="0" t="s">
         <x:v>82</x:v>
       </x:c>
@@ -4770,7 +4734,7 @@
         <x:v>84</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:11">
+    <x:row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B24" s="0" t="s">
         <x:v>85</x:v>
       </x:c>
@@ -4790,7 +4754,7 @@
         <x:v>87</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:11">
+    <x:row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B25" s="0" t="s">
         <x:v>88</x:v>
       </x:c>
@@ -4810,7 +4774,7 @@
         <x:v>90</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:11">
+    <x:row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B26" s="0" t="s">
         <x:v>91</x:v>
       </x:c>
@@ -4830,7 +4794,7 @@
         <x:v>93</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:11">
+    <x:row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B27" s="0" t="s">
         <x:v>94</x:v>
       </x:c>
@@ -4850,7 +4814,7 @@
         <x:v>96</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:11">
+    <x:row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B28" s="0" t="s">
         <x:v>97</x:v>
       </x:c>
@@ -4870,7 +4834,7 @@
         <x:v>99</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:11">
+    <x:row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B29" s="0" t="s">
         <x:v>100</x:v>
       </x:c>
@@ -4890,7 +4854,7 @@
         <x:v>102</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:11">
+    <x:row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B30" s="0" t="s">
         <x:v>103</x:v>
       </x:c>
@@ -4910,7 +4874,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:11">
+    <x:row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B31" s="0" t="s">
         <x:v>106</x:v>
       </x:c>
@@ -4930,7 +4894,7 @@
         <x:v>108</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:11">
+    <x:row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B32" s="0" t="s">
         <x:v>109</x:v>
       </x:c>
@@ -4950,7 +4914,7 @@
         <x:v>111</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:11">
+    <x:row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B33" s="0" t="s">
         <x:v>112</x:v>
       </x:c>
@@ -4970,7 +4934,7 @@
         <x:v>114</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:11">
+    <x:row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B34" s="0" t="s">
         <x:v>115</x:v>
       </x:c>
@@ -4990,7 +4954,7 @@
         <x:v>117</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:11">
+    <x:row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B35" s="0" t="s">
         <x:v>118</x:v>
       </x:c>
@@ -5010,7 +4974,7 @@
         <x:v>120</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:11">
+    <x:row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B36" s="0" t="s">
         <x:v>121</x:v>
       </x:c>
@@ -5030,7 +4994,7 @@
         <x:v>123</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:11">
+    <x:row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B37" s="0" t="s">
         <x:v>124</x:v>
       </x:c>
@@ -5050,7 +5014,7 @@
         <x:v>126</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:11">
+    <x:row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B38" s="0" t="s">
         <x:v>127</x:v>
       </x:c>
@@ -5070,7 +5034,7 @@
         <x:v>129</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:11">
+    <x:row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B39" s="0" t="s">
         <x:v>130</x:v>
       </x:c>
@@ -5090,7 +5054,7 @@
         <x:v>132</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:11">
+    <x:row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B40" s="0" t="s">
         <x:v>133</x:v>
       </x:c>
@@ -5110,7 +5074,7 @@
         <x:v>135</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:11">
+    <x:row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B41" s="0" t="s">
         <x:v>136</x:v>
       </x:c>
@@ -5130,7 +5094,7 @@
         <x:v>138</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:11">
+    <x:row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B42" s="0" t="s">
         <x:v>139</x:v>
       </x:c>
@@ -5150,7 +5114,7 @@
         <x:v>141</x:v>
       </x:c>
     </x:row>
-    <x:row r="43" spans="1:11">
+    <x:row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B43" s="0" t="s">
         <x:v>142</x:v>
       </x:c>
@@ -5170,7 +5134,7 @@
         <x:v>144</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:11">
+    <x:row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B44" s="0" t="s">
         <x:v>145</x:v>
       </x:c>
@@ -5190,7 +5154,7 @@
         <x:v>147</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:11">
+    <x:row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B45" s="0" t="s">
         <x:v>148</x:v>
       </x:c>
@@ -5210,7 +5174,7 @@
         <x:v>150</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:11">
+    <x:row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B46" s="0" t="s">
         <x:v>151</x:v>
       </x:c>
@@ -5230,7 +5194,7 @@
         <x:v>153</x:v>
       </x:c>
     </x:row>
-    <x:row r="47" spans="1:11">
+    <x:row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B47" s="0" t="s">
         <x:v>154</x:v>
       </x:c>
@@ -5250,7 +5214,7 @@
         <x:v>156</x:v>
       </x:c>
     </x:row>
-    <x:row r="48" spans="1:11">
+    <x:row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B48" s="0" t="s">
         <x:v>157</x:v>
       </x:c>
@@ -5270,7 +5234,7 @@
         <x:v>159</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:11">
+    <x:row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B49" s="0" t="s">
         <x:v>160</x:v>
       </x:c>
@@ -5290,7 +5254,7 @@
         <x:v>162</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:11">
+    <x:row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B50" s="0" t="s">
         <x:v>163</x:v>
       </x:c>
@@ -5310,7 +5274,7 @@
         <x:v>165</x:v>
       </x:c>
     </x:row>
-    <x:row r="51" spans="1:11">
+    <x:row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B51" s="0" t="s">
         <x:v>166</x:v>
       </x:c>
@@ -5330,7 +5294,7 @@
         <x:v>168</x:v>
       </x:c>
     </x:row>
-    <x:row r="52" spans="1:11">
+    <x:row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B52" s="0" t="s">
         <x:v>169</x:v>
       </x:c>
@@ -5350,7 +5314,7 @@
         <x:v>171</x:v>
       </x:c>
     </x:row>
-    <x:row r="53" spans="1:11">
+    <x:row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B53" s="0" t="s">
         <x:v>172</x:v>
       </x:c>
@@ -5370,7 +5334,7 @@
         <x:v>174</x:v>
       </x:c>
     </x:row>
-    <x:row r="54" spans="1:11">
+    <x:row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B54" s="0" t="s">
         <x:v>175</x:v>
       </x:c>
@@ -5390,7 +5354,7 @@
         <x:v>177</x:v>
       </x:c>
     </x:row>
-    <x:row r="55" spans="1:11">
+    <x:row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B55" s="0" t="s">
         <x:v>178</x:v>
       </x:c>
@@ -5410,7 +5374,7 @@
         <x:v>180</x:v>
       </x:c>
     </x:row>
-    <x:row r="56" spans="1:11">
+    <x:row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B56" s="0" t="s">
         <x:v>181</x:v>
       </x:c>
@@ -5430,7 +5394,7 @@
         <x:v>183</x:v>
       </x:c>
     </x:row>
-    <x:row r="57" spans="1:11">
+    <x:row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B57" s="0" t="s">
         <x:v>184</x:v>
       </x:c>
@@ -5450,7 +5414,7 @@
         <x:v>186</x:v>
       </x:c>
     </x:row>
-    <x:row r="58" spans="1:11">
+    <x:row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B58" s="0" t="s">
         <x:v>187</x:v>
       </x:c>
@@ -5470,7 +5434,7 @@
         <x:v>78</x:v>
       </x:c>
     </x:row>
-    <x:row r="59" spans="1:11">
+    <x:row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B59" s="0" t="s">
         <x:v>189</x:v>
       </x:c>
@@ -5490,7 +5454,7 @@
         <x:v>191</x:v>
       </x:c>
     </x:row>
-    <x:row r="60" spans="1:11">
+    <x:row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B60" s="0" t="s">
         <x:v>192</x:v>
       </x:c>
@@ -5510,7 +5474,7 @@
         <x:v>194</x:v>
       </x:c>
     </x:row>
-    <x:row r="61" spans="1:11">
+    <x:row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B61" s="0" t="s">
         <x:v>195</x:v>
       </x:c>
@@ -5530,7 +5494,7 @@
         <x:v>197</x:v>
       </x:c>
     </x:row>
-    <x:row r="62" spans="1:11">
+    <x:row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B62" s="0" t="s">
         <x:v>198</x:v>
       </x:c>
@@ -5550,7 +5514,7 @@
         <x:v>200</x:v>
       </x:c>
     </x:row>
-    <x:row r="63" spans="1:11">
+    <x:row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B63" s="0" t="s">
         <x:v>201</x:v>
       </x:c>
@@ -5570,7 +5534,7 @@
         <x:v>203</x:v>
       </x:c>
     </x:row>
-    <x:row r="64" spans="1:11">
+    <x:row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B64" s="0" t="s">
         <x:v>204</x:v>
       </x:c>
@@ -5590,7 +5554,7 @@
         <x:v>206</x:v>
       </x:c>
     </x:row>
-    <x:row r="65" spans="1:11">
+    <x:row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B65" s="0" t="s">
         <x:v>207</x:v>
       </x:c>
@@ -5610,7 +5574,7 @@
         <x:v>209</x:v>
       </x:c>
     </x:row>
-    <x:row r="66" spans="1:11">
+    <x:row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B66" s="0" t="s">
         <x:v>210</x:v>
       </x:c>
@@ -5630,7 +5594,7 @@
         <x:v>212</x:v>
       </x:c>
     </x:row>
-    <x:row r="67" spans="1:11">
+    <x:row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B67" s="0" t="s">
         <x:v>213</x:v>
       </x:c>
@@ -5650,7 +5614,7 @@
         <x:v>215</x:v>
       </x:c>
     </x:row>
-    <x:row r="68" spans="1:11">
+    <x:row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B68" s="0" t="s">
         <x:v>216</x:v>
       </x:c>
@@ -5670,7 +5634,7 @@
         <x:v>218</x:v>
       </x:c>
     </x:row>
-    <x:row r="69" spans="1:11">
+    <x:row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B69" s="0" t="s">
         <x:v>219</x:v>
       </x:c>
@@ -5690,7 +5654,7 @@
         <x:v>221</x:v>
       </x:c>
     </x:row>
-    <x:row r="70" spans="1:11">
+    <x:row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B70" s="0" t="s">
         <x:v>222</x:v>
       </x:c>
@@ -5710,7 +5674,7 @@
         <x:v>224</x:v>
       </x:c>
     </x:row>
-    <x:row r="71" spans="1:11">
+    <x:row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B71" s="0" t="s">
         <x:v>225</x:v>
       </x:c>
@@ -5730,7 +5694,7 @@
         <x:v>227</x:v>
       </x:c>
     </x:row>
-    <x:row r="72" spans="1:11">
+    <x:row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B72" s="0" t="s">
         <x:v>228</x:v>
       </x:c>
@@ -5750,7 +5714,7 @@
         <x:v>230</x:v>
       </x:c>
     </x:row>
-    <x:row r="73" spans="1:11">
+    <x:row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B73" s="0" t="s">
         <x:v>231</x:v>
       </x:c>
@@ -5770,7 +5734,7 @@
         <x:v>233</x:v>
       </x:c>
     </x:row>
-    <x:row r="74" spans="1:11">
+    <x:row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B74" s="0" t="s">
         <x:v>234</x:v>
       </x:c>
@@ -5790,7 +5754,7 @@
         <x:v>236</x:v>
       </x:c>
     </x:row>
-    <x:row r="75" spans="1:11">
+    <x:row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B75" s="0" t="s">
         <x:v>237</x:v>
       </x:c>
@@ -5810,7 +5774,7 @@
         <x:v>239</x:v>
       </x:c>
     </x:row>
-    <x:row r="76" spans="1:11">
+    <x:row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B76" s="0" t="s">
         <x:v>240</x:v>
       </x:c>
@@ -5830,7 +5794,7 @@
         <x:v>242</x:v>
       </x:c>
     </x:row>
-    <x:row r="77" spans="1:11">
+    <x:row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B77" s="0" t="s">
         <x:v>243</x:v>
       </x:c>
@@ -5850,7 +5814,7 @@
         <x:v>245</x:v>
       </x:c>
     </x:row>
-    <x:row r="78" spans="1:11">
+    <x:row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B78" s="0" t="s">
         <x:v>246</x:v>
       </x:c>
@@ -5870,7 +5834,7 @@
         <x:v>248</x:v>
       </x:c>
     </x:row>
-    <x:row r="79" spans="1:11">
+    <x:row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B79" s="0" t="s">
         <x:v>249</x:v>
       </x:c>
@@ -5890,7 +5854,7 @@
         <x:v>251</x:v>
       </x:c>
     </x:row>
-    <x:row r="80" spans="1:11">
+    <x:row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B80" s="0" t="s">
         <x:v>252</x:v>
       </x:c>
@@ -5910,7 +5874,7 @@
         <x:v>254</x:v>
       </x:c>
     </x:row>
-    <x:row r="81" spans="1:11">
+    <x:row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B81" s="0" t="s">
         <x:v>255</x:v>
       </x:c>
@@ -5930,7 +5894,7 @@
         <x:v>257</x:v>
       </x:c>
     </x:row>
-    <x:row r="82" spans="1:11">
+    <x:row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B82" s="0" t="s">
         <x:v>258</x:v>
       </x:c>
@@ -5950,7 +5914,7 @@
         <x:v>260</x:v>
       </x:c>
     </x:row>
-    <x:row r="83" spans="1:11">
+    <x:row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B83" s="0" t="s">
         <x:v>261</x:v>
       </x:c>
@@ -5970,7 +5934,7 @@
         <x:v>263</x:v>
       </x:c>
     </x:row>
-    <x:row r="84" spans="1:11">
+    <x:row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B84" s="0" t="s">
         <x:v>264</x:v>
       </x:c>
@@ -5990,7 +5954,7 @@
         <x:v>266</x:v>
       </x:c>
     </x:row>
-    <x:row r="85" spans="1:11">
+    <x:row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B85" s="0" t="s">
         <x:v>267</x:v>
       </x:c>
@@ -6010,7 +5974,7 @@
         <x:v>269</x:v>
       </x:c>
     </x:row>
-    <x:row r="86" spans="1:11">
+    <x:row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B86" s="0" t="s">
         <x:v>270</x:v>
       </x:c>
@@ -6030,7 +5994,7 @@
         <x:v>272</x:v>
       </x:c>
     </x:row>
-    <x:row r="87" spans="1:11">
+    <x:row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B87" s="0" t="s">
         <x:v>273</x:v>
       </x:c>
@@ -6050,7 +6014,7 @@
         <x:v>275</x:v>
       </x:c>
     </x:row>
-    <x:row r="88" spans="1:11">
+    <x:row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B88" s="0" t="s">
         <x:v>276</x:v>
       </x:c>
@@ -6070,7 +6034,7 @@
         <x:v>278</x:v>
       </x:c>
     </x:row>
-    <x:row r="89" spans="1:11">
+    <x:row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B89" s="0" t="s">
         <x:v>279</x:v>
       </x:c>
@@ -6090,7 +6054,7 @@
         <x:v>281</x:v>
       </x:c>
     </x:row>
-    <x:row r="90" spans="1:11">
+    <x:row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B90" s="0" t="s">
         <x:v>282</x:v>
       </x:c>
@@ -6110,7 +6074,7 @@
         <x:v>284</x:v>
       </x:c>
     </x:row>
-    <x:row r="91" spans="1:11">
+    <x:row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B91" s="0" t="s">
         <x:v>285</x:v>
       </x:c>
@@ -6130,7 +6094,7 @@
         <x:v>287</x:v>
       </x:c>
     </x:row>
-    <x:row r="92" spans="1:11">
+    <x:row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B92" s="0" t="s">
         <x:v>288</x:v>
       </x:c>
@@ -6150,7 +6114,7 @@
         <x:v>290</x:v>
       </x:c>
     </x:row>
-    <x:row r="93" spans="1:11">
+    <x:row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B93" s="0" t="s">
         <x:v>291</x:v>
       </x:c>
@@ -6170,7 +6134,7 @@
         <x:v>293</x:v>
       </x:c>
     </x:row>
-    <x:row r="94" spans="1:11">
+    <x:row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B94" s="0" t="s">
         <x:v>294</x:v>
       </x:c>
@@ -6190,7 +6154,7 @@
         <x:v>296</x:v>
       </x:c>
     </x:row>
-    <x:row r="95" spans="1:11">
+    <x:row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B95" s="0" t="s">
         <x:v>297</x:v>
       </x:c>
@@ -6210,7 +6174,7 @@
         <x:v>299</x:v>
       </x:c>
     </x:row>
-    <x:row r="96" spans="1:11">
+    <x:row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B96" s="0" t="s">
         <x:v>300</x:v>
       </x:c>
@@ -6230,7 +6194,7 @@
         <x:v>302</x:v>
       </x:c>
     </x:row>
-    <x:row r="97" spans="1:11">
+    <x:row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B97" s="0" t="s">
         <x:v>303</x:v>
       </x:c>
@@ -6250,7 +6214,7 @@
         <x:v>305</x:v>
       </x:c>
     </x:row>
-    <x:row r="98" spans="1:11">
+    <x:row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B98" s="0" t="s">
         <x:v>306</x:v>
       </x:c>
@@ -6270,7 +6234,7 @@
         <x:v>308</x:v>
       </x:c>
     </x:row>
-    <x:row r="99" spans="1:11">
+    <x:row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B99" s="0" t="s">
         <x:v>309</x:v>
       </x:c>
@@ -6290,7 +6254,7 @@
         <x:v>311</x:v>
       </x:c>
     </x:row>
-    <x:row r="100" spans="1:11">
+    <x:row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B100" s="0" t="s">
         <x:v>312</x:v>
       </x:c>
@@ -6310,7 +6274,7 @@
         <x:v>314</x:v>
       </x:c>
     </x:row>
-    <x:row r="101" spans="1:11">
+    <x:row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B101" s="0" t="s">
         <x:v>315</x:v>
       </x:c>
@@ -6330,7 +6294,7 @@
         <x:v>317</x:v>
       </x:c>
     </x:row>
-    <x:row r="102" spans="1:11">
+    <x:row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B102" s="0" t="s">
         <x:v>318</x:v>
       </x:c>
@@ -6350,7 +6314,7 @@
         <x:v>320</x:v>
       </x:c>
     </x:row>
-    <x:row r="103" spans="1:11">
+    <x:row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B103" s="0" t="s">
         <x:v>321</x:v>
       </x:c>
@@ -6370,7 +6334,7 @@
         <x:v>323</x:v>
       </x:c>
     </x:row>
-    <x:row r="104" spans="1:11">
+    <x:row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B104" s="0" t="s">
         <x:v>324</x:v>
       </x:c>
@@ -6390,7 +6354,7 @@
         <x:v>326</x:v>
       </x:c>
     </x:row>
-    <x:row r="105" spans="1:11">
+    <x:row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B105" s="0" t="s">
         <x:v>327</x:v>
       </x:c>
@@ -6410,7 +6374,7 @@
         <x:v>329</x:v>
       </x:c>
     </x:row>
-    <x:row r="106" spans="1:11">
+    <x:row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B106" s="0" t="s">
         <x:v>330</x:v>
       </x:c>
@@ -6430,7 +6394,7 @@
         <x:v>332</x:v>
       </x:c>
     </x:row>
-    <x:row r="107" spans="1:11">
+    <x:row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B107" s="0" t="s">
         <x:v>333</x:v>
       </x:c>
@@ -6450,7 +6414,7 @@
         <x:v>335</x:v>
       </x:c>
     </x:row>
-    <x:row r="108" spans="1:11">
+    <x:row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B108" s="0" t="s">
         <x:v>336</x:v>
       </x:c>
@@ -6470,7 +6434,7 @@
         <x:v>338</x:v>
       </x:c>
     </x:row>
-    <x:row r="109" spans="1:11">
+    <x:row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B109" s="0" t="s">
         <x:v>339</x:v>
       </x:c>
@@ -6490,7 +6454,7 @@
         <x:v>341</x:v>
       </x:c>
     </x:row>
-    <x:row r="110" spans="1:11">
+    <x:row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B110" s="0" t="s">
         <x:v>342</x:v>
       </x:c>
@@ -6510,7 +6474,7 @@
         <x:v>344</x:v>
       </x:c>
     </x:row>
-    <x:row r="111" spans="1:11">
+    <x:row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B111" s="0" t="s">
         <x:v>345</x:v>
       </x:c>
@@ -6530,7 +6494,7 @@
         <x:v>275</x:v>
       </x:c>
     </x:row>
-    <x:row r="112" spans="1:11">
+    <x:row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B112" s="0" t="s">
         <x:v>347</x:v>
       </x:c>
@@ -6550,7 +6514,7 @@
         <x:v>349</x:v>
       </x:c>
     </x:row>
-    <x:row r="113" spans="1:11">
+    <x:row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B113" s="0" t="s">
         <x:v>350</x:v>
       </x:c>
@@ -6570,7 +6534,7 @@
         <x:v>352</x:v>
       </x:c>
     </x:row>
-    <x:row r="114" spans="1:11">
+    <x:row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B114" s="0" t="s">
         <x:v>353</x:v>
       </x:c>
@@ -6590,7 +6554,7 @@
         <x:v>355</x:v>
       </x:c>
     </x:row>
-    <x:row r="115" spans="1:11">
+    <x:row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B115" s="0" t="s">
         <x:v>356</x:v>
       </x:c>
@@ -6610,7 +6574,7 @@
         <x:v>358</x:v>
       </x:c>
     </x:row>
-    <x:row r="116" spans="1:11">
+    <x:row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B116" s="0" t="s">
         <x:v>359</x:v>
       </x:c>
@@ -6630,7 +6594,7 @@
         <x:v>57</x:v>
       </x:c>
     </x:row>
-    <x:row r="117" spans="1:11">
+    <x:row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B117" s="0" t="s">
         <x:v>361</x:v>
       </x:c>
@@ -6650,7 +6614,7 @@
         <x:v>363</x:v>
       </x:c>
     </x:row>
-    <x:row r="118" spans="1:11">
+    <x:row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B118" s="0" t="s">
         <x:v>364</x:v>
       </x:c>
@@ -6670,7 +6634,7 @@
         <x:v>366</x:v>
       </x:c>
     </x:row>
-    <x:row r="119" spans="1:11">
+    <x:row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B119" s="0" t="s">
         <x:v>367</x:v>
       </x:c>
@@ -6690,7 +6654,7 @@
         <x:v>369</x:v>
       </x:c>
     </x:row>
-    <x:row r="120" spans="1:11">
+    <x:row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B120" s="0" t="s">
         <x:v>370</x:v>
       </x:c>
@@ -6710,7 +6674,7 @@
         <x:v>372</x:v>
       </x:c>
     </x:row>
-    <x:row r="121" spans="1:11">
+    <x:row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B121" s="0" t="s">
         <x:v>373</x:v>
       </x:c>
@@ -6730,7 +6694,7 @@
         <x:v>375</x:v>
       </x:c>
     </x:row>
-    <x:row r="122" spans="1:11">
+    <x:row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B122" s="0" t="s">
         <x:v>376</x:v>
       </x:c>
@@ -6750,7 +6714,7 @@
         <x:v>378</x:v>
       </x:c>
     </x:row>
-    <x:row r="123" spans="1:11">
+    <x:row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B123" s="0" t="s">
         <x:v>379</x:v>
       </x:c>
@@ -6770,7 +6734,7 @@
         <x:v>381</x:v>
       </x:c>
     </x:row>
-    <x:row r="124" spans="1:11">
+    <x:row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B124" s="0" t="s">
         <x:v>382</x:v>
       </x:c>
@@ -6790,7 +6754,7 @@
         <x:v>384</x:v>
       </x:c>
     </x:row>
-    <x:row r="125" spans="1:11">
+    <x:row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B125" s="0" t="s">
         <x:v>385</x:v>
       </x:c>
@@ -6810,7 +6774,7 @@
         <x:v>387</x:v>
       </x:c>
     </x:row>
-    <x:row r="126" spans="1:11">
+    <x:row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B126" s="0" t="s">
         <x:v>388</x:v>
       </x:c>
@@ -6830,7 +6794,7 @@
         <x:v>390</x:v>
       </x:c>
     </x:row>
-    <x:row r="127" spans="1:11">
+    <x:row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <x:c r="B127" s="0" t="s">
         <x:v>391</x:v>
       </x:c>
@@ -6851,6 +6815,7 @@
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:phoneticPr fontId="1" type="noConversion"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
@@ -6860,17 +6825,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
   <x:dimension ref="A1:K127"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="N17" sqref="N17"/>
+    </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:sheetData>
-    <x:row r="1" spans="1:11">
+    <x:row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -6905,7 +6872,7 @@
         <x:v>397</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:11">
+    <x:row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -6925,7 +6892,7 @@
         <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:11">
+    <x:row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B3" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
@@ -6945,7 +6912,7 @@
         <x:v>15</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:11">
+    <x:row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B4" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
@@ -6965,7 +6932,7 @@
         <x:v>20</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:11">
+    <x:row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B5" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
@@ -6985,7 +6952,7 @@
         <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:11">
+    <x:row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B6" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
@@ -7005,7 +6972,7 @@
         <x:v>26</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:11">
+    <x:row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B7" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
@@ -7025,7 +6992,7 @@
         <x:v>31</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:11">
+    <x:row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B8" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
@@ -7045,7 +7012,7 @@
         <x:v>34</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:11">
+    <x:row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B9" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
@@ -7065,7 +7032,7 @@
         <x:v>37</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:11">
+    <x:row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B10" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
@@ -7085,7 +7052,7 @@
         <x:v>40</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:11">
+    <x:row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B11" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
@@ -7113,11 +7080,8 @@
       <x:c r="J11" s="0" t="s">
         <x:v>400</x:v>
       </x:c>
-      <x:c r="K11" s="0" t="s">
-        <x:v>401</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:11">
+    </x:row>
+    <x:row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B12" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
@@ -7137,7 +7101,7 @@
         <x:v>49</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:11">
+    <x:row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B13" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
@@ -7157,7 +7121,7 @@
         <x:v>54</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:11">
+    <x:row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B14" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
@@ -7177,7 +7141,7 @@
         <x:v>57</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:11">
+    <x:row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B15" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
@@ -7197,19 +7161,16 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="H15" s="0" t="s">
+        <x:v>401</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s">
         <x:v>402</x:v>
-      </x:c>
-      <x:c r="I15" s="0" t="s">
-        <x:v>403</x:v>
       </x:c>
       <x:c r="J15" s="0" t="s">
         <x:v>400</x:v>
       </x:c>
-      <x:c r="K15" s="0" t="s">
-        <x:v>404</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:11">
+    </x:row>
+    <x:row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B16" s="0" t="s">
         <x:v>61</x:v>
       </x:c>
@@ -7229,7 +7190,7 @@
         <x:v>63</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:11">
+    <x:row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B17" s="0" t="s">
         <x:v>64</x:v>
       </x:c>
@@ -7249,7 +7210,7 @@
         <x:v>66</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:11">
+    <x:row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B18" s="0" t="s">
         <x:v>67</x:v>
       </x:c>
@@ -7269,7 +7230,7 @@
         <x:v>69</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:11">
+    <x:row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B19" s="0" t="s">
         <x:v>70</x:v>
       </x:c>
@@ -7289,7 +7250,7 @@
         <x:v>72</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:11">
+    <x:row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B20" s="0" t="s">
         <x:v>73</x:v>
       </x:c>
@@ -7309,7 +7270,7 @@
         <x:v>75</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:11">
+    <x:row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B21" s="0" t="s">
         <x:v>76</x:v>
       </x:c>
@@ -7329,19 +7290,16 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="H21" s="0" t="s">
+        <x:v>403</x:v>
+      </x:c>
+      <x:c r="I21" s="0" t="s">
+        <x:v>404</x:v>
+      </x:c>
+      <x:c r="J21" s="0" t="s">
         <x:v>405</x:v>
       </x:c>
-      <x:c r="I21" s="0" t="s">
-        <x:v>406</x:v>
-      </x:c>
-      <x:c r="J21" s="0" t="s">
-        <x:v>407</x:v>
-      </x:c>
-      <x:c r="K21" s="0" t="s">
-        <x:v>408</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:11">
+    </x:row>
+    <x:row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B22" s="0" t="s">
         <x:v>79</x:v>
       </x:c>
@@ -7361,7 +7319,7 @@
         <x:v>81</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:11">
+    <x:row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B23" s="0" t="s">
         <x:v>82</x:v>
       </x:c>
@@ -7381,7 +7339,7 @@
         <x:v>84</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:11">
+    <x:row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B24" s="0" t="s">
         <x:v>85</x:v>
       </x:c>
@@ -7401,7 +7359,7 @@
         <x:v>87</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:11">
+    <x:row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B25" s="0" t="s">
         <x:v>88</x:v>
       </x:c>
@@ -7421,7 +7379,7 @@
         <x:v>90</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:11">
+    <x:row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B26" s="0" t="s">
         <x:v>91</x:v>
       </x:c>
@@ -7441,7 +7399,7 @@
         <x:v>93</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:11">
+    <x:row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B27" s="0" t="s">
         <x:v>94</x:v>
       </x:c>
@@ -7461,7 +7419,7 @@
         <x:v>96</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:11">
+    <x:row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B28" s="0" t="s">
         <x:v>97</x:v>
       </x:c>
@@ -7481,7 +7439,7 @@
         <x:v>99</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:11">
+    <x:row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B29" s="0" t="s">
         <x:v>100</x:v>
       </x:c>
@@ -7501,7 +7459,7 @@
         <x:v>102</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:11">
+    <x:row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B30" s="0" t="s">
         <x:v>103</x:v>
       </x:c>
@@ -7521,7 +7479,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:11">
+    <x:row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B31" s="0" t="s">
         <x:v>106</x:v>
       </x:c>
@@ -7541,7 +7499,7 @@
         <x:v>108</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:11">
+    <x:row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B32" s="0" t="s">
         <x:v>109</x:v>
       </x:c>
@@ -7561,7 +7519,7 @@
         <x:v>111</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:11">
+    <x:row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B33" s="0" t="s">
         <x:v>112</x:v>
       </x:c>
@@ -7581,7 +7539,7 @@
         <x:v>114</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:11">
+    <x:row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B34" s="0" t="s">
         <x:v>115</x:v>
       </x:c>
@@ -7601,7 +7559,7 @@
         <x:v>117</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:11">
+    <x:row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B35" s="0" t="s">
         <x:v>118</x:v>
       </x:c>
@@ -7621,7 +7579,7 @@
         <x:v>120</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:11">
+    <x:row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B36" s="0" t="s">
         <x:v>121</x:v>
       </x:c>
@@ -7641,7 +7599,7 @@
         <x:v>123</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:11">
+    <x:row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B37" s="0" t="s">
         <x:v>124</x:v>
       </x:c>
@@ -7661,7 +7619,7 @@
         <x:v>126</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:11">
+    <x:row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B38" s="0" t="s">
         <x:v>127</x:v>
       </x:c>
@@ -7681,7 +7639,7 @@
         <x:v>129</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:11">
+    <x:row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B39" s="0" t="s">
         <x:v>130</x:v>
       </x:c>
@@ -7701,7 +7659,7 @@
         <x:v>132</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:11">
+    <x:row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B40" s="0" t="s">
         <x:v>133</x:v>
       </x:c>
@@ -7721,7 +7679,7 @@
         <x:v>135</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:11">
+    <x:row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B41" s="0" t="s">
         <x:v>136</x:v>
       </x:c>
@@ -7741,7 +7699,7 @@
         <x:v>138</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:11">
+    <x:row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B42" s="0" t="s">
         <x:v>139</x:v>
       </x:c>
@@ -7761,19 +7719,16 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="H42" s="0" t="s">
-        <x:v>409</x:v>
+        <x:v>406</x:v>
       </x:c>
       <x:c r="I42" s="0" t="s">
-        <x:v>410</x:v>
+        <x:v>407</x:v>
       </x:c>
       <x:c r="J42" s="0" t="s">
-        <x:v>407</x:v>
-      </x:c>
-      <x:c r="K42" s="0" t="s">
-        <x:v>411</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="43" spans="1:11">
+        <x:v>405</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B43" s="0" t="s">
         <x:v>142</x:v>
       </x:c>
@@ -7793,7 +7748,7 @@
         <x:v>144</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:11">
+    <x:row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B44" s="0" t="s">
         <x:v>145</x:v>
       </x:c>
@@ -7813,7 +7768,7 @@
         <x:v>147</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:11">
+    <x:row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B45" s="0" t="s">
         <x:v>148</x:v>
       </x:c>
@@ -7833,7 +7788,7 @@
         <x:v>150</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:11">
+    <x:row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B46" s="0" t="s">
         <x:v>151</x:v>
       </x:c>
@@ -7853,19 +7808,16 @@
         <x:v>153</x:v>
       </x:c>
       <x:c r="H46" s="0" t="s">
-        <x:v>412</x:v>
+        <x:v>408</x:v>
       </x:c>
       <x:c r="I46" s="0" t="s">
-        <x:v>413</x:v>
+        <x:v>409</x:v>
       </x:c>
       <x:c r="J46" s="0" t="s">
-        <x:v>414</x:v>
-      </x:c>
-      <x:c r="K46" s="0" t="s">
-        <x:v>415</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="47" spans="1:11">
+        <x:v>410</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B47" s="0" t="s">
         <x:v>154</x:v>
       </x:c>
@@ -7885,7 +7837,7 @@
         <x:v>156</x:v>
       </x:c>
     </x:row>
-    <x:row r="48" spans="1:11">
+    <x:row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B48" s="0" t="s">
         <x:v>157</x:v>
       </x:c>
@@ -7905,7 +7857,7 @@
         <x:v>159</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:11">
+    <x:row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B49" s="0" t="s">
         <x:v>160</x:v>
       </x:c>
@@ -7925,7 +7877,7 @@
         <x:v>162</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:11">
+    <x:row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B50" s="0" t="s">
         <x:v>163</x:v>
       </x:c>
@@ -7945,7 +7897,7 @@
         <x:v>165</x:v>
       </x:c>
     </x:row>
-    <x:row r="51" spans="1:11">
+    <x:row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B51" s="0" t="s">
         <x:v>166</x:v>
       </x:c>
@@ -7965,7 +7917,7 @@
         <x:v>168</x:v>
       </x:c>
     </x:row>
-    <x:row r="52" spans="1:11">
+    <x:row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B52" s="0" t="s">
         <x:v>169</x:v>
       </x:c>
@@ -7985,7 +7937,7 @@
         <x:v>171</x:v>
       </x:c>
     </x:row>
-    <x:row r="53" spans="1:11">
+    <x:row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B53" s="0" t="s">
         <x:v>172</x:v>
       </x:c>
@@ -8005,7 +7957,7 @@
         <x:v>174</x:v>
       </x:c>
     </x:row>
-    <x:row r="54" spans="1:11">
+    <x:row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B54" s="0" t="s">
         <x:v>175</x:v>
       </x:c>
@@ -8025,19 +7977,16 @@
         <x:v>177</x:v>
       </x:c>
       <x:c r="H54" s="0" t="s">
-        <x:v>416</x:v>
+        <x:v>411</x:v>
       </x:c>
       <x:c r="I54" s="0" t="s">
-        <x:v>417</x:v>
+        <x:v>412</x:v>
       </x:c>
       <x:c r="J54" s="0" t="s">
-        <x:v>407</x:v>
-      </x:c>
-      <x:c r="K54" s="0" t="s">
-        <x:v>418</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="55" spans="1:11">
+        <x:v>405</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B55" s="0" t="s">
         <x:v>178</x:v>
       </x:c>
@@ -8057,7 +8006,7 @@
         <x:v>180</x:v>
       </x:c>
     </x:row>
-    <x:row r="56" spans="1:11">
+    <x:row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B56" s="0" t="s">
         <x:v>181</x:v>
       </x:c>
@@ -8077,7 +8026,7 @@
         <x:v>183</x:v>
       </x:c>
     </x:row>
-    <x:row r="57" spans="1:11">
+    <x:row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B57" s="0" t="s">
         <x:v>184</x:v>
       </x:c>
@@ -8097,7 +8046,7 @@
         <x:v>186</x:v>
       </x:c>
     </x:row>
-    <x:row r="58" spans="1:11">
+    <x:row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B58" s="0" t="s">
         <x:v>187</x:v>
       </x:c>
@@ -8117,7 +8066,7 @@
         <x:v>78</x:v>
       </x:c>
     </x:row>
-    <x:row r="59" spans="1:11">
+    <x:row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B59" s="0" t="s">
         <x:v>189</x:v>
       </x:c>
@@ -8137,19 +8086,16 @@
         <x:v>191</x:v>
       </x:c>
       <x:c r="H59" s="0" t="s">
-        <x:v>419</x:v>
+        <x:v>413</x:v>
       </x:c>
       <x:c r="I59" s="0" t="s">
-        <x:v>420</x:v>
+        <x:v>414</x:v>
       </x:c>
       <x:c r="J59" s="0" t="s">
         <x:v>400</x:v>
       </x:c>
-      <x:c r="K59" s="0" t="s">
-        <x:v>421</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="60" spans="1:11">
+    </x:row>
+    <x:row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B60" s="0" t="s">
         <x:v>192</x:v>
       </x:c>
@@ -8169,19 +8115,16 @@
         <x:v>194</x:v>
       </x:c>
       <x:c r="H60" s="0" t="s">
-        <x:v>422</x:v>
+        <x:v>415</x:v>
       </x:c>
       <x:c r="I60" s="0" t="s">
-        <x:v>423</x:v>
+        <x:v>416</x:v>
       </x:c>
       <x:c r="J60" s="0" t="s">
-        <x:v>407</x:v>
-      </x:c>
-      <x:c r="K60" s="0" t="s">
-        <x:v>424</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="61" spans="1:11">
+        <x:v>405</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B61" s="0" t="s">
         <x:v>195</x:v>
       </x:c>
@@ -8201,7 +8144,7 @@
         <x:v>197</x:v>
       </x:c>
     </x:row>
-    <x:row r="62" spans="1:11">
+    <x:row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B62" s="0" t="s">
         <x:v>198</x:v>
       </x:c>
@@ -8221,7 +8164,7 @@
         <x:v>200</x:v>
       </x:c>
     </x:row>
-    <x:row r="63" spans="1:11">
+    <x:row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B63" s="0" t="s">
         <x:v>201</x:v>
       </x:c>
@@ -8241,7 +8184,7 @@
         <x:v>203</x:v>
       </x:c>
     </x:row>
-    <x:row r="64" spans="1:11">
+    <x:row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B64" s="0" t="s">
         <x:v>204</x:v>
       </x:c>
@@ -8261,7 +8204,7 @@
         <x:v>206</x:v>
       </x:c>
     </x:row>
-    <x:row r="65" spans="1:11">
+    <x:row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B65" s="0" t="s">
         <x:v>207</x:v>
       </x:c>
@@ -8281,7 +8224,7 @@
         <x:v>209</x:v>
       </x:c>
     </x:row>
-    <x:row r="66" spans="1:11">
+    <x:row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B66" s="0" t="s">
         <x:v>210</x:v>
       </x:c>
@@ -8301,7 +8244,7 @@
         <x:v>212</x:v>
       </x:c>
     </x:row>
-    <x:row r="67" spans="1:11">
+    <x:row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B67" s="0" t="s">
         <x:v>213</x:v>
       </x:c>
@@ -8321,7 +8264,7 @@
         <x:v>215</x:v>
       </x:c>
     </x:row>
-    <x:row r="68" spans="1:11">
+    <x:row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B68" s="0" t="s">
         <x:v>216</x:v>
       </x:c>
@@ -8341,7 +8284,7 @@
         <x:v>218</x:v>
       </x:c>
     </x:row>
-    <x:row r="69" spans="1:11">
+    <x:row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B69" s="0" t="s">
         <x:v>219</x:v>
       </x:c>
@@ -8361,7 +8304,7 @@
         <x:v>221</x:v>
       </x:c>
     </x:row>
-    <x:row r="70" spans="1:11">
+    <x:row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B70" s="0" t="s">
         <x:v>222</x:v>
       </x:c>
@@ -8381,19 +8324,16 @@
         <x:v>224</x:v>
       </x:c>
       <x:c r="H70" s="0" t="s">
-        <x:v>425</x:v>
+        <x:v>417</x:v>
       </x:c>
       <x:c r="I70" s="0" t="s">
-        <x:v>426</x:v>
+        <x:v>418</x:v>
       </x:c>
       <x:c r="J70" s="0" t="s">
-        <x:v>427</x:v>
-      </x:c>
-      <x:c r="K70" s="0" t="s">
-        <x:v>428</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="71" spans="1:11">
+        <x:v>419</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B71" s="0" t="s">
         <x:v>225</x:v>
       </x:c>
@@ -8413,7 +8353,7 @@
         <x:v>227</x:v>
       </x:c>
     </x:row>
-    <x:row r="72" spans="1:11">
+    <x:row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B72" s="0" t="s">
         <x:v>228</x:v>
       </x:c>
@@ -8433,7 +8373,7 @@
         <x:v>230</x:v>
       </x:c>
     </x:row>
-    <x:row r="73" spans="1:11">
+    <x:row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B73" s="0" t="s">
         <x:v>231</x:v>
       </x:c>
@@ -8453,7 +8393,7 @@
         <x:v>233</x:v>
       </x:c>
     </x:row>
-    <x:row r="74" spans="1:11">
+    <x:row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B74" s="0" t="s">
         <x:v>234</x:v>
       </x:c>
@@ -8473,7 +8413,7 @@
         <x:v>236</x:v>
       </x:c>
     </x:row>
-    <x:row r="75" spans="1:11">
+    <x:row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B75" s="0" t="s">
         <x:v>237</x:v>
       </x:c>
@@ -8493,7 +8433,7 @@
         <x:v>239</x:v>
       </x:c>
     </x:row>
-    <x:row r="76" spans="1:11">
+    <x:row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B76" s="0" t="s">
         <x:v>240</x:v>
       </x:c>
@@ -8513,7 +8453,7 @@
         <x:v>242</x:v>
       </x:c>
     </x:row>
-    <x:row r="77" spans="1:11">
+    <x:row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B77" s="0" t="s">
         <x:v>243</x:v>
       </x:c>
@@ -8533,7 +8473,7 @@
         <x:v>245</x:v>
       </x:c>
     </x:row>
-    <x:row r="78" spans="1:11">
+    <x:row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B78" s="0" t="s">
         <x:v>246</x:v>
       </x:c>
@@ -8553,7 +8493,7 @@
         <x:v>248</x:v>
       </x:c>
     </x:row>
-    <x:row r="79" spans="1:11">
+    <x:row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B79" s="0" t="s">
         <x:v>249</x:v>
       </x:c>
@@ -8573,7 +8513,7 @@
         <x:v>251</x:v>
       </x:c>
     </x:row>
-    <x:row r="80" spans="1:11">
+    <x:row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B80" s="0" t="s">
         <x:v>252</x:v>
       </x:c>
@@ -8593,7 +8533,7 @@
         <x:v>254</x:v>
       </x:c>
     </x:row>
-    <x:row r="81" spans="1:11">
+    <x:row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B81" s="0" t="s">
         <x:v>255</x:v>
       </x:c>
@@ -8613,19 +8553,16 @@
         <x:v>257</x:v>
       </x:c>
       <x:c r="H81" s="0" t="s">
-        <x:v>429</x:v>
+        <x:v>420</x:v>
       </x:c>
       <x:c r="I81" s="0" t="s">
-        <x:v>430</x:v>
+        <x:v>421</x:v>
       </x:c>
       <x:c r="J81" s="0" t="s">
-        <x:v>414</x:v>
-      </x:c>
-      <x:c r="K81" s="0" t="s">
-        <x:v>431</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="82" spans="1:11">
+        <x:v>410</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B82" s="0" t="s">
         <x:v>258</x:v>
       </x:c>
@@ -8645,7 +8582,7 @@
         <x:v>260</x:v>
       </x:c>
     </x:row>
-    <x:row r="83" spans="1:11">
+    <x:row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B83" s="0" t="s">
         <x:v>261</x:v>
       </x:c>
@@ -8665,7 +8602,7 @@
         <x:v>263</x:v>
       </x:c>
     </x:row>
-    <x:row r="84" spans="1:11">
+    <x:row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B84" s="0" t="s">
         <x:v>264</x:v>
       </x:c>
@@ -8685,7 +8622,7 @@
         <x:v>266</x:v>
       </x:c>
     </x:row>
-    <x:row r="85" spans="1:11">
+    <x:row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B85" s="0" t="s">
         <x:v>267</x:v>
       </x:c>
@@ -8705,19 +8642,16 @@
         <x:v>269</x:v>
       </x:c>
       <x:c r="H85" s="0" t="s">
-        <x:v>432</x:v>
+        <x:v>422</x:v>
       </x:c>
       <x:c r="I85" s="0" t="s">
-        <x:v>433</x:v>
+        <x:v>423</x:v>
       </x:c>
       <x:c r="J85" s="0" t="s">
-        <x:v>427</x:v>
-      </x:c>
-      <x:c r="K85" s="0" t="s">
-        <x:v>434</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="86" spans="1:11">
+        <x:v>419</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B86" s="0" t="s">
         <x:v>270</x:v>
       </x:c>
@@ -8737,7 +8671,7 @@
         <x:v>272</x:v>
       </x:c>
     </x:row>
-    <x:row r="87" spans="1:11">
+    <x:row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B87" s="0" t="s">
         <x:v>273</x:v>
       </x:c>
@@ -8757,7 +8691,7 @@
         <x:v>275</x:v>
       </x:c>
     </x:row>
-    <x:row r="88" spans="1:11">
+    <x:row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B88" s="0" t="s">
         <x:v>276</x:v>
       </x:c>
@@ -8777,7 +8711,7 @@
         <x:v>278</x:v>
       </x:c>
     </x:row>
-    <x:row r="89" spans="1:11">
+    <x:row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B89" s="0" t="s">
         <x:v>279</x:v>
       </x:c>
@@ -8797,7 +8731,7 @@
         <x:v>281</x:v>
       </x:c>
     </x:row>
-    <x:row r="90" spans="1:11">
+    <x:row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B90" s="0" t="s">
         <x:v>282</x:v>
       </x:c>
@@ -8817,7 +8751,7 @@
         <x:v>284</x:v>
       </x:c>
     </x:row>
-    <x:row r="91" spans="1:11">
+    <x:row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B91" s="0" t="s">
         <x:v>285</x:v>
       </x:c>
@@ -8837,7 +8771,7 @@
         <x:v>287</x:v>
       </x:c>
     </x:row>
-    <x:row r="92" spans="1:11">
+    <x:row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B92" s="0" t="s">
         <x:v>288</x:v>
       </x:c>
@@ -8857,7 +8791,7 @@
         <x:v>290</x:v>
       </x:c>
     </x:row>
-    <x:row r="93" spans="1:11">
+    <x:row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B93" s="0" t="s">
         <x:v>291</x:v>
       </x:c>
@@ -8877,7 +8811,7 @@
         <x:v>293</x:v>
       </x:c>
     </x:row>
-    <x:row r="94" spans="1:11">
+    <x:row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B94" s="0" t="s">
         <x:v>294</x:v>
       </x:c>
@@ -8897,7 +8831,7 @@
         <x:v>296</x:v>
       </x:c>
     </x:row>
-    <x:row r="95" spans="1:11">
+    <x:row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B95" s="0" t="s">
         <x:v>297</x:v>
       </x:c>
@@ -8917,7 +8851,7 @@
         <x:v>299</x:v>
       </x:c>
     </x:row>
-    <x:row r="96" spans="1:11">
+    <x:row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B96" s="0" t="s">
         <x:v>300</x:v>
       </x:c>
@@ -8937,7 +8871,7 @@
         <x:v>302</x:v>
       </x:c>
     </x:row>
-    <x:row r="97" spans="1:11">
+    <x:row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B97" s="0" t="s">
         <x:v>303</x:v>
       </x:c>
@@ -8957,19 +8891,16 @@
         <x:v>305</x:v>
       </x:c>
       <x:c r="H97" s="0" t="s">
-        <x:v>435</x:v>
+        <x:v>424</x:v>
       </x:c>
       <x:c r="I97" s="0" t="s">
-        <x:v>436</x:v>
+        <x:v>425</x:v>
       </x:c>
       <x:c r="J97" s="0" t="s">
-        <x:v>407</x:v>
-      </x:c>
-      <x:c r="K97" s="0" t="s">
-        <x:v>437</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="98" spans="1:11">
+        <x:v>405</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B98" s="0" t="s">
         <x:v>306</x:v>
       </x:c>
@@ -8989,7 +8920,7 @@
         <x:v>308</x:v>
       </x:c>
     </x:row>
-    <x:row r="99" spans="1:11">
+    <x:row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B99" s="0" t="s">
         <x:v>309</x:v>
       </x:c>
@@ -9009,19 +8940,16 @@
         <x:v>311</x:v>
       </x:c>
       <x:c r="H99" s="0" t="s">
-        <x:v>438</x:v>
+        <x:v>426</x:v>
       </x:c>
       <x:c r="I99" s="0" t="s">
-        <x:v>439</x:v>
+        <x:v>427</x:v>
       </x:c>
       <x:c r="J99" s="0" t="s">
-        <x:v>427</x:v>
-      </x:c>
-      <x:c r="K99" s="0" t="s">
-        <x:v>440</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="100" spans="1:11">
+        <x:v>419</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B100" s="0" t="s">
         <x:v>312</x:v>
       </x:c>
@@ -9041,7 +8969,7 @@
         <x:v>314</x:v>
       </x:c>
     </x:row>
-    <x:row r="101" spans="1:11">
+    <x:row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B101" s="0" t="s">
         <x:v>315</x:v>
       </x:c>
@@ -9061,7 +8989,7 @@
         <x:v>317</x:v>
       </x:c>
     </x:row>
-    <x:row r="102" spans="1:11">
+    <x:row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B102" s="0" t="s">
         <x:v>318</x:v>
       </x:c>
@@ -9081,7 +9009,7 @@
         <x:v>320</x:v>
       </x:c>
     </x:row>
-    <x:row r="103" spans="1:11">
+    <x:row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B103" s="0" t="s">
         <x:v>321</x:v>
       </x:c>
@@ -9101,7 +9029,7 @@
         <x:v>323</x:v>
       </x:c>
     </x:row>
-    <x:row r="104" spans="1:11">
+    <x:row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B104" s="0" t="s">
         <x:v>324</x:v>
       </x:c>
@@ -9121,7 +9049,7 @@
         <x:v>326</x:v>
       </x:c>
     </x:row>
-    <x:row r="105" spans="1:11">
+    <x:row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B105" s="0" t="s">
         <x:v>327</x:v>
       </x:c>
@@ -9141,7 +9069,7 @@
         <x:v>329</x:v>
       </x:c>
     </x:row>
-    <x:row r="106" spans="1:11">
+    <x:row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B106" s="0" t="s">
         <x:v>330</x:v>
       </x:c>
@@ -9161,7 +9089,7 @@
         <x:v>332</x:v>
       </x:c>
     </x:row>
-    <x:row r="107" spans="1:11">
+    <x:row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B107" s="0" t="s">
         <x:v>333</x:v>
       </x:c>
@@ -9181,7 +9109,7 @@
         <x:v>335</x:v>
       </x:c>
     </x:row>
-    <x:row r="108" spans="1:11">
+    <x:row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B108" s="0" t="s">
         <x:v>336</x:v>
       </x:c>
@@ -9201,7 +9129,7 @@
         <x:v>338</x:v>
       </x:c>
     </x:row>
-    <x:row r="109" spans="1:11">
+    <x:row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B109" s="0" t="s">
         <x:v>339</x:v>
       </x:c>
@@ -9221,7 +9149,7 @@
         <x:v>341</x:v>
       </x:c>
     </x:row>
-    <x:row r="110" spans="1:11">
+    <x:row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B110" s="0" t="s">
         <x:v>342</x:v>
       </x:c>
@@ -9241,19 +9169,16 @@
         <x:v>344</x:v>
       </x:c>
       <x:c r="H110" s="0" t="s">
-        <x:v>441</x:v>
+        <x:v>428</x:v>
       </x:c>
       <x:c r="I110" s="0" t="s">
-        <x:v>442</x:v>
+        <x:v>429</x:v>
       </x:c>
       <x:c r="J110" s="0" t="s">
-        <x:v>427</x:v>
-      </x:c>
-      <x:c r="K110" s="0" t="s">
-        <x:v>443</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="111" spans="1:11">
+        <x:v>419</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B111" s="0" t="s">
         <x:v>345</x:v>
       </x:c>
@@ -9273,7 +9198,7 @@
         <x:v>275</x:v>
       </x:c>
     </x:row>
-    <x:row r="112" spans="1:11">
+    <x:row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B112" s="0" t="s">
         <x:v>347</x:v>
       </x:c>
@@ -9293,7 +9218,7 @@
         <x:v>349</x:v>
       </x:c>
     </x:row>
-    <x:row r="113" spans="1:11">
+    <x:row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B113" s="0" t="s">
         <x:v>350</x:v>
       </x:c>
@@ -9313,7 +9238,7 @@
         <x:v>352</x:v>
       </x:c>
     </x:row>
-    <x:row r="114" spans="1:11">
+    <x:row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B114" s="0" t="s">
         <x:v>353</x:v>
       </x:c>
@@ -9333,7 +9258,7 @@
         <x:v>355</x:v>
       </x:c>
     </x:row>
-    <x:row r="115" spans="1:11">
+    <x:row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B115" s="0" t="s">
         <x:v>356</x:v>
       </x:c>
@@ -9353,7 +9278,7 @@
         <x:v>358</x:v>
       </x:c>
     </x:row>
-    <x:row r="116" spans="1:11">
+    <x:row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B116" s="0" t="s">
         <x:v>359</x:v>
       </x:c>
@@ -9373,19 +9298,16 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="H116" s="0" t="s">
-        <x:v>444</x:v>
+        <x:v>430</x:v>
       </x:c>
       <x:c r="I116" s="0" t="s">
-        <x:v>445</x:v>
+        <x:v>431</x:v>
       </x:c>
       <x:c r="J116" s="0" t="s">
         <x:v>400</x:v>
       </x:c>
-      <x:c r="K116" s="0" t="s">
-        <x:v>446</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="117" spans="1:11">
+    </x:row>
+    <x:row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B117" s="0" t="s">
         <x:v>361</x:v>
       </x:c>
@@ -9405,7 +9327,7 @@
         <x:v>363</x:v>
       </x:c>
     </x:row>
-    <x:row r="118" spans="1:11">
+    <x:row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B118" s="0" t="s">
         <x:v>364</x:v>
       </x:c>
@@ -9425,7 +9347,7 @@
         <x:v>366</x:v>
       </x:c>
     </x:row>
-    <x:row r="119" spans="1:11">
+    <x:row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B119" s="0" t="s">
         <x:v>367</x:v>
       </x:c>
@@ -9445,7 +9367,7 @@
         <x:v>369</x:v>
       </x:c>
     </x:row>
-    <x:row r="120" spans="1:11">
+    <x:row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B120" s="0" t="s">
         <x:v>370</x:v>
       </x:c>
@@ -9465,19 +9387,16 @@
         <x:v>372</x:v>
       </x:c>
       <x:c r="H120" s="0" t="s">
-        <x:v>447</x:v>
+        <x:v>432</x:v>
       </x:c>
       <x:c r="I120" s="0" t="s">
-        <x:v>448</x:v>
+        <x:v>433</x:v>
       </x:c>
       <x:c r="J120" s="0" t="s">
-        <x:v>427</x:v>
-      </x:c>
-      <x:c r="K120" s="0" t="s">
-        <x:v>449</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="121" spans="1:11">
+        <x:v>419</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B121" s="0" t="s">
         <x:v>373</x:v>
       </x:c>
@@ -9497,7 +9416,7 @@
         <x:v>375</x:v>
       </x:c>
     </x:row>
-    <x:row r="122" spans="1:11">
+    <x:row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B122" s="0" t="s">
         <x:v>376</x:v>
       </x:c>
@@ -9517,7 +9436,7 @@
         <x:v>378</x:v>
       </x:c>
     </x:row>
-    <x:row r="123" spans="1:11">
+    <x:row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B123" s="0" t="s">
         <x:v>379</x:v>
       </x:c>
@@ -9537,7 +9456,7 @@
         <x:v>381</x:v>
       </x:c>
     </x:row>
-    <x:row r="124" spans="1:11">
+    <x:row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B124" s="0" t="s">
         <x:v>382</x:v>
       </x:c>
@@ -9557,16 +9476,16 @@
         <x:v>384</x:v>
       </x:c>
       <x:c r="H124" s="0" t="s">
-        <x:v>450</x:v>
+        <x:v>434</x:v>
       </x:c>
       <x:c r="I124" s="0" t="s">
-        <x:v>451</x:v>
+        <x:v>435</x:v>
       </x:c>
       <x:c r="J124" s="0" t="s">
-        <x:v>407</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="125" spans="1:11">
+        <x:v>405</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B125" s="0" t="s">
         <x:v>385</x:v>
       </x:c>
@@ -9586,7 +9505,7 @@
         <x:v>387</x:v>
       </x:c>
     </x:row>
-    <x:row r="126" spans="1:11">
+    <x:row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B126" s="0" t="s">
         <x:v>388</x:v>
       </x:c>
@@ -9606,7 +9525,7 @@
         <x:v>390</x:v>
       </x:c>
     </x:row>
-    <x:row r="127" spans="1:11">
+    <x:row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <x:c r="B127" s="0" t="s">
         <x:v>391</x:v>
       </x:c>
@@ -9627,6 +9546,7 @@
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:phoneticPr fontId="1" type="noConversion"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
@@ -9636,17 +9556,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
   <x:dimension ref="A1:K127"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="M122" sqref="M122"/>
+    </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:sheetData>
-    <x:row r="1" spans="1:11">
+    <x:row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -9681,7 +9603,7 @@
         <x:v>397</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:11">
+    <x:row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -9700,8 +9622,20 @@
       <x:c r="G2" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-    </x:row>
-    <x:row r="3" spans="1:11">
+      <x:c r="H2" s="0" t="s">
+        <x:v>424</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>436</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
+        <x:v>437</x:v>
+      </x:c>
+      <x:c r="K2" s="0" t="s">
+        <x:v>438</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B3" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
@@ -9721,7 +9655,7 @@
         <x:v>15</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:11">
+    <x:row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B4" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
@@ -9741,7 +9675,7 @@
         <x:v>20</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:11">
+    <x:row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B5" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
@@ -9761,7 +9695,7 @@
         <x:v>23</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:11">
+    <x:row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B6" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
@@ -9781,7 +9715,7 @@
         <x:v>26</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:11">
+    <x:row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B7" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
@@ -9801,7 +9735,7 @@
         <x:v>31</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:11">
+    <x:row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B8" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
@@ -9821,7 +9755,7 @@
         <x:v>34</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:11">
+    <x:row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B9" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
@@ -9841,7 +9775,7 @@
         <x:v>37</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:11">
+    <x:row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B10" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
@@ -9861,7 +9795,7 @@
         <x:v>40</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:11">
+    <x:row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B11" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
@@ -9880,20 +9814,8 @@
       <x:c r="G11" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="H11" s="0" t="s">
-        <x:v>398</x:v>
-      </x:c>
-      <x:c r="I11" s="0" t="s">
-        <x:v>399</x:v>
-      </x:c>
-      <x:c r="J11" s="0" t="s">
-        <x:v>400</x:v>
-      </x:c>
-      <x:c r="K11" s="0" t="s">
-        <x:v>401</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:11">
+    </x:row>
+    <x:row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B12" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
@@ -9913,7 +9835,7 @@
         <x:v>49</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:11">
+    <x:row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B13" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
@@ -9933,7 +9855,7 @@
         <x:v>54</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:11">
+    <x:row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B14" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
@@ -9953,7 +9875,7 @@
         <x:v>57</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:11">
+    <x:row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B15" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
@@ -9972,20 +9894,8 @@
       <x:c r="G15" s="0" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="H15" s="0" t="s">
-        <x:v>402</x:v>
-      </x:c>
-      <x:c r="I15" s="0" t="s">
-        <x:v>403</x:v>
-      </x:c>
-      <x:c r="J15" s="0" t="s">
-        <x:v>400</x:v>
-      </x:c>
-      <x:c r="K15" s="0" t="s">
-        <x:v>404</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:11">
+    </x:row>
+    <x:row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B16" s="0" t="s">
         <x:v>61</x:v>
       </x:c>
@@ -10005,7 +9915,7 @@
         <x:v>63</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:11">
+    <x:row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B17" s="0" t="s">
         <x:v>64</x:v>
       </x:c>
@@ -10025,7 +9935,7 @@
         <x:v>66</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:11">
+    <x:row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B18" s="0" t="s">
         <x:v>67</x:v>
       </x:c>
@@ -10045,7 +9955,7 @@
         <x:v>69</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:11">
+    <x:row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B19" s="0" t="s">
         <x:v>70</x:v>
       </x:c>
@@ -10065,7 +9975,7 @@
         <x:v>72</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:11">
+    <x:row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B20" s="0" t="s">
         <x:v>73</x:v>
       </x:c>
@@ -10085,7 +9995,7 @@
         <x:v>75</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:11">
+    <x:row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B21" s="0" t="s">
         <x:v>76</x:v>
       </x:c>
@@ -10104,20 +10014,8 @@
       <x:c r="G21" s="0" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="H21" s="0" t="s">
-        <x:v>405</x:v>
-      </x:c>
-      <x:c r="I21" s="0" t="s">
-        <x:v>406</x:v>
-      </x:c>
-      <x:c r="J21" s="0" t="s">
-        <x:v>407</x:v>
-      </x:c>
-      <x:c r="K21" s="0" t="s">
-        <x:v>408</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:11">
+    </x:row>
+    <x:row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B22" s="0" t="s">
         <x:v>79</x:v>
       </x:c>
@@ -10137,7 +10035,7 @@
         <x:v>81</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:11">
+    <x:row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B23" s="0" t="s">
         <x:v>82</x:v>
       </x:c>
@@ -10157,7 +10055,7 @@
         <x:v>84</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:11">
+    <x:row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B24" s="0" t="s">
         <x:v>85</x:v>
       </x:c>
@@ -10177,7 +10075,7 @@
         <x:v>87</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:11">
+    <x:row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B25" s="0" t="s">
         <x:v>88</x:v>
       </x:c>
@@ -10197,7 +10095,7 @@
         <x:v>90</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:11">
+    <x:row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B26" s="0" t="s">
         <x:v>91</x:v>
       </x:c>
@@ -10217,7 +10115,7 @@
         <x:v>93</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:11">
+    <x:row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B27" s="0" t="s">
         <x:v>94</x:v>
       </x:c>
@@ -10237,7 +10135,7 @@
         <x:v>96</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:11">
+    <x:row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B28" s="0" t="s">
         <x:v>97</x:v>
       </x:c>
@@ -10257,7 +10155,7 @@
         <x:v>99</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:11">
+    <x:row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B29" s="0" t="s">
         <x:v>100</x:v>
       </x:c>
@@ -10277,7 +10175,7 @@
         <x:v>102</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:11">
+    <x:row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B30" s="0" t="s">
         <x:v>103</x:v>
       </x:c>
@@ -10297,7 +10195,7 @@
         <x:v>105</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:11">
+    <x:row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B31" s="0" t="s">
         <x:v>106</x:v>
       </x:c>
@@ -10317,7 +10215,7 @@
         <x:v>108</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:11">
+    <x:row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B32" s="0" t="s">
         <x:v>109</x:v>
       </x:c>
@@ -10337,7 +10235,7 @@
         <x:v>111</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:11">
+    <x:row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B33" s="0" t="s">
         <x:v>112</x:v>
       </x:c>
@@ -10357,7 +10255,7 @@
         <x:v>114</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:11">
+    <x:row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B34" s="0" t="s">
         <x:v>115</x:v>
       </x:c>
@@ -10377,7 +10275,7 @@
         <x:v>117</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:11">
+    <x:row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B35" s="0" t="s">
         <x:v>118</x:v>
       </x:c>
@@ -10397,7 +10295,7 @@
         <x:v>120</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:11">
+    <x:row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B36" s="0" t="s">
         <x:v>121</x:v>
       </x:c>
@@ -10417,7 +10315,7 @@
         <x:v>123</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:11">
+    <x:row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B37" s="0" t="s">
         <x:v>124</x:v>
       </x:c>
@@ -10437,7 +10335,7 @@
         <x:v>126</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:11">
+    <x:row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B38" s="0" t="s">
         <x:v>127</x:v>
       </x:c>
@@ -10457,7 +10355,7 @@
         <x:v>129</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:11">
+    <x:row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B39" s="0" t="s">
         <x:v>130</x:v>
       </x:c>
@@ -10477,7 +10375,7 @@
         <x:v>132</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:11">
+    <x:row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B40" s="0" t="s">
         <x:v>133</x:v>
       </x:c>
@@ -10497,7 +10395,7 @@
         <x:v>135</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:11">
+    <x:row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B41" s="0" t="s">
         <x:v>136</x:v>
       </x:c>
@@ -10517,7 +10415,7 @@
         <x:v>138</x:v>
       </x:c>
     </x:row>
-    <x:row r="42" spans="1:11">
+    <x:row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B42" s="0" t="s">
         <x:v>139</x:v>
       </x:c>
@@ -10536,20 +10434,8 @@
       <x:c r="G42" s="0" t="s">
         <x:v>141</x:v>
       </x:c>
-      <x:c r="H42" s="0" t="s">
-        <x:v>409</x:v>
-      </x:c>
-      <x:c r="I42" s="0" t="s">
-        <x:v>410</x:v>
-      </x:c>
-      <x:c r="J42" s="0" t="s">
-        <x:v>407</x:v>
-      </x:c>
-      <x:c r="K42" s="0" t="s">
-        <x:v>411</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="43" spans="1:11">
+    </x:row>
+    <x:row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B43" s="0" t="s">
         <x:v>142</x:v>
       </x:c>
@@ -10569,7 +10455,7 @@
         <x:v>144</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:11">
+    <x:row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B44" s="0" t="s">
         <x:v>145</x:v>
       </x:c>
@@ -10589,7 +10475,7 @@
         <x:v>147</x:v>
       </x:c>
     </x:row>
-    <x:row r="45" spans="1:11">
+    <x:row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B45" s="0" t="s">
         <x:v>148</x:v>
       </x:c>
@@ -10609,7 +10495,7 @@
         <x:v>150</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:11">
+    <x:row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B46" s="0" t="s">
         <x:v>151</x:v>
       </x:c>
@@ -10628,20 +10514,8 @@
       <x:c r="G46" s="0" t="s">
         <x:v>153</x:v>
       </x:c>
-      <x:c r="H46" s="0" t="s">
-        <x:v>412</x:v>
-      </x:c>
-      <x:c r="I46" s="0" t="s">
-        <x:v>413</x:v>
-      </x:c>
-      <x:c r="J46" s="0" t="s">
-        <x:v>414</x:v>
-      </x:c>
-      <x:c r="K46" s="0" t="s">
-        <x:v>415</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="47" spans="1:11">
+    </x:row>
+    <x:row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B47" s="0" t="s">
         <x:v>154</x:v>
       </x:c>
@@ -10661,7 +10535,7 @@
         <x:v>156</x:v>
       </x:c>
     </x:row>
-    <x:row r="48" spans="1:11">
+    <x:row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B48" s="0" t="s">
         <x:v>157</x:v>
       </x:c>
@@ -10681,7 +10555,7 @@
         <x:v>159</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:11">
+    <x:row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B49" s="0" t="s">
         <x:v>160</x:v>
       </x:c>
@@ -10701,7 +10575,7 @@
         <x:v>162</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:11">
+    <x:row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B50" s="0" t="s">
         <x:v>163</x:v>
       </x:c>
@@ -10721,7 +10595,7 @@
         <x:v>165</x:v>
       </x:c>
     </x:row>
-    <x:row r="51" spans="1:11">
+    <x:row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B51" s="0" t="s">
         <x:v>166</x:v>
       </x:c>
@@ -10741,7 +10615,7 @@
         <x:v>168</x:v>
       </x:c>
     </x:row>
-    <x:row r="52" spans="1:11">
+    <x:row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B52" s="0" t="s">
         <x:v>169</x:v>
       </x:c>
@@ -10761,7 +10635,7 @@
         <x:v>171</x:v>
       </x:c>
     </x:row>
-    <x:row r="53" spans="1:11">
+    <x:row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B53" s="0" t="s">
         <x:v>172</x:v>
       </x:c>
@@ -10781,7 +10655,7 @@
         <x:v>174</x:v>
       </x:c>
     </x:row>
-    <x:row r="54" spans="1:11">
+    <x:row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B54" s="0" t="s">
         <x:v>175</x:v>
       </x:c>
@@ -10800,20 +10674,8 @@
       <x:c r="G54" s="0" t="s">
         <x:v>177</x:v>
       </x:c>
-      <x:c r="H54" s="0" t="s">
-        <x:v>416</x:v>
-      </x:c>
-      <x:c r="I54" s="0" t="s">
-        <x:v>417</x:v>
-      </x:c>
-      <x:c r="J54" s="0" t="s">
-        <x:v>407</x:v>
-      </x:c>
-      <x:c r="K54" s="0" t="s">
-        <x:v>418</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="55" spans="1:11">
+    </x:row>
+    <x:row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B55" s="0" t="s">
         <x:v>178</x:v>
       </x:c>
@@ -10833,7 +10695,7 @@
         <x:v>180</x:v>
       </x:c>
     </x:row>
-    <x:row r="56" spans="1:11">
+    <x:row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B56" s="0" t="s">
         <x:v>181</x:v>
       </x:c>
@@ -10853,7 +10715,7 @@
         <x:v>183</x:v>
       </x:c>
     </x:row>
-    <x:row r="57" spans="1:11">
+    <x:row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B57" s="0" t="s">
         <x:v>184</x:v>
       </x:c>
@@ -10873,7 +10735,7 @@
         <x:v>186</x:v>
       </x:c>
     </x:row>
-    <x:row r="58" spans="1:11">
+    <x:row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B58" s="0" t="s">
         <x:v>187</x:v>
       </x:c>
@@ -10893,7 +10755,7 @@
         <x:v>78</x:v>
       </x:c>
     </x:row>
-    <x:row r="59" spans="1:11">
+    <x:row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B59" s="0" t="s">
         <x:v>189</x:v>
       </x:c>
@@ -10912,20 +10774,8 @@
       <x:c r="G59" s="0" t="s">
         <x:v>191</x:v>
       </x:c>
-      <x:c r="H59" s="0" t="s">
-        <x:v>419</x:v>
-      </x:c>
-      <x:c r="I59" s="0" t="s">
-        <x:v>420</x:v>
-      </x:c>
-      <x:c r="J59" s="0" t="s">
-        <x:v>400</x:v>
-      </x:c>
-      <x:c r="K59" s="0" t="s">
-        <x:v>421</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="60" spans="1:11">
+    </x:row>
+    <x:row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B60" s="0" t="s">
         <x:v>192</x:v>
       </x:c>
@@ -10944,20 +10794,8 @@
       <x:c r="G60" s="0" t="s">
         <x:v>194</x:v>
       </x:c>
-      <x:c r="H60" s="0" t="s">
-        <x:v>422</x:v>
-      </x:c>
-      <x:c r="I60" s="0" t="s">
-        <x:v>423</x:v>
-      </x:c>
-      <x:c r="J60" s="0" t="s">
-        <x:v>407</x:v>
-      </x:c>
-      <x:c r="K60" s="0" t="s">
-        <x:v>424</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="61" spans="1:11">
+    </x:row>
+    <x:row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B61" s="0" t="s">
         <x:v>195</x:v>
       </x:c>
@@ -10977,7 +10815,7 @@
         <x:v>197</x:v>
       </x:c>
     </x:row>
-    <x:row r="62" spans="1:11">
+    <x:row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B62" s="0" t="s">
         <x:v>198</x:v>
       </x:c>
@@ -10997,7 +10835,7 @@
         <x:v>200</x:v>
       </x:c>
     </x:row>
-    <x:row r="63" spans="1:11">
+    <x:row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B63" s="0" t="s">
         <x:v>201</x:v>
       </x:c>
@@ -11017,7 +10855,7 @@
         <x:v>203</x:v>
       </x:c>
     </x:row>
-    <x:row r="64" spans="1:11">
+    <x:row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B64" s="0" t="s">
         <x:v>204</x:v>
       </x:c>
@@ -11037,7 +10875,7 @@
         <x:v>206</x:v>
       </x:c>
     </x:row>
-    <x:row r="65" spans="1:11">
+    <x:row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B65" s="0" t="s">
         <x:v>207</x:v>
       </x:c>
@@ -11057,7 +10895,7 @@
         <x:v>209</x:v>
       </x:c>
     </x:row>
-    <x:row r="66" spans="1:11">
+    <x:row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B66" s="0" t="s">
         <x:v>210</x:v>
       </x:c>
@@ -11077,7 +10915,7 @@
         <x:v>212</x:v>
       </x:c>
     </x:row>
-    <x:row r="67" spans="1:11">
+    <x:row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B67" s="0" t="s">
         <x:v>213</x:v>
       </x:c>
@@ -11097,7 +10935,7 @@
         <x:v>215</x:v>
       </x:c>
     </x:row>
-    <x:row r="68" spans="1:11">
+    <x:row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B68" s="0" t="s">
         <x:v>216</x:v>
       </x:c>
@@ -11117,7 +10955,7 @@
         <x:v>218</x:v>
       </x:c>
     </x:row>
-    <x:row r="69" spans="1:11">
+    <x:row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B69" s="0" t="s">
         <x:v>219</x:v>
       </x:c>
@@ -11137,7 +10975,7 @@
         <x:v>221</x:v>
       </x:c>
     </x:row>
-    <x:row r="70" spans="1:11">
+    <x:row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B70" s="0" t="s">
         <x:v>222</x:v>
       </x:c>
@@ -11156,20 +10994,8 @@
       <x:c r="G70" s="0" t="s">
         <x:v>224</x:v>
       </x:c>
-      <x:c r="H70" s="0" t="s">
-        <x:v>425</x:v>
-      </x:c>
-      <x:c r="I70" s="0" t="s">
-        <x:v>426</x:v>
-      </x:c>
-      <x:c r="J70" s="0" t="s">
-        <x:v>427</x:v>
-      </x:c>
-      <x:c r="K70" s="0" t="s">
-        <x:v>428</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="71" spans="1:11">
+    </x:row>
+    <x:row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B71" s="0" t="s">
         <x:v>225</x:v>
       </x:c>
@@ -11189,7 +11015,7 @@
         <x:v>227</x:v>
       </x:c>
     </x:row>
-    <x:row r="72" spans="1:11">
+    <x:row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B72" s="0" t="s">
         <x:v>228</x:v>
       </x:c>
@@ -11209,7 +11035,7 @@
         <x:v>230</x:v>
       </x:c>
     </x:row>
-    <x:row r="73" spans="1:11">
+    <x:row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B73" s="0" t="s">
         <x:v>231</x:v>
       </x:c>
@@ -11229,7 +11055,7 @@
         <x:v>233</x:v>
       </x:c>
     </x:row>
-    <x:row r="74" spans="1:11">
+    <x:row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B74" s="0" t="s">
         <x:v>234</x:v>
       </x:c>
@@ -11249,7 +11075,7 @@
         <x:v>236</x:v>
       </x:c>
     </x:row>
-    <x:row r="75" spans="1:11">
+    <x:row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B75" s="0" t="s">
         <x:v>237</x:v>
       </x:c>
@@ -11269,7 +11095,7 @@
         <x:v>239</x:v>
       </x:c>
     </x:row>
-    <x:row r="76" spans="1:11">
+    <x:row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B76" s="0" t="s">
         <x:v>240</x:v>
       </x:c>
@@ -11289,7 +11115,7 @@
         <x:v>242</x:v>
       </x:c>
     </x:row>
-    <x:row r="77" spans="1:11">
+    <x:row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B77" s="0" t="s">
         <x:v>243</x:v>
       </x:c>
@@ -11309,7 +11135,7 @@
         <x:v>245</x:v>
       </x:c>
     </x:row>
-    <x:row r="78" spans="1:11">
+    <x:row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B78" s="0" t="s">
         <x:v>246</x:v>
       </x:c>
@@ -11329,7 +11155,7 @@
         <x:v>248</x:v>
       </x:c>
     </x:row>
-    <x:row r="79" spans="1:11">
+    <x:row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B79" s="0" t="s">
         <x:v>249</x:v>
       </x:c>
@@ -11349,7 +11175,7 @@
         <x:v>251</x:v>
       </x:c>
     </x:row>
-    <x:row r="80" spans="1:11">
+    <x:row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B80" s="0" t="s">
         <x:v>252</x:v>
       </x:c>
@@ -11369,7 +11195,7 @@
         <x:v>254</x:v>
       </x:c>
     </x:row>
-    <x:row r="81" spans="1:11">
+    <x:row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B81" s="0" t="s">
         <x:v>255</x:v>
       </x:c>
@@ -11388,20 +11214,8 @@
       <x:c r="G81" s="0" t="s">
         <x:v>257</x:v>
       </x:c>
-      <x:c r="H81" s="0" t="s">
-        <x:v>429</x:v>
-      </x:c>
-      <x:c r="I81" s="0" t="s">
-        <x:v>430</x:v>
-      </x:c>
-      <x:c r="J81" s="0" t="s">
-        <x:v>414</x:v>
-      </x:c>
-      <x:c r="K81" s="0" t="s">
-        <x:v>431</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="82" spans="1:11">
+    </x:row>
+    <x:row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B82" s="0" t="s">
         <x:v>258</x:v>
       </x:c>
@@ -11421,7 +11235,7 @@
         <x:v>260</x:v>
       </x:c>
     </x:row>
-    <x:row r="83" spans="1:11">
+    <x:row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B83" s="0" t="s">
         <x:v>261</x:v>
       </x:c>
@@ -11441,7 +11255,7 @@
         <x:v>263</x:v>
       </x:c>
     </x:row>
-    <x:row r="84" spans="1:11">
+    <x:row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B84" s="0" t="s">
         <x:v>264</x:v>
       </x:c>
@@ -11461,7 +11275,7 @@
         <x:v>266</x:v>
       </x:c>
     </x:row>
-    <x:row r="85" spans="1:11">
+    <x:row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B85" s="0" t="s">
         <x:v>267</x:v>
       </x:c>
@@ -11480,20 +11294,8 @@
       <x:c r="G85" s="0" t="s">
         <x:v>269</x:v>
       </x:c>
-      <x:c r="H85" s="0" t="s">
-        <x:v>432</x:v>
-      </x:c>
-      <x:c r="I85" s="0" t="s">
-        <x:v>433</x:v>
-      </x:c>
-      <x:c r="J85" s="0" t="s">
-        <x:v>427</x:v>
-      </x:c>
-      <x:c r="K85" s="0" t="s">
-        <x:v>434</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="86" spans="1:11">
+    </x:row>
+    <x:row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B86" s="0" t="s">
         <x:v>270</x:v>
       </x:c>
@@ -11513,7 +11315,7 @@
         <x:v>272</x:v>
       </x:c>
     </x:row>
-    <x:row r="87" spans="1:11">
+    <x:row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B87" s="0" t="s">
         <x:v>273</x:v>
       </x:c>
@@ -11533,7 +11335,7 @@
         <x:v>275</x:v>
       </x:c>
     </x:row>
-    <x:row r="88" spans="1:11">
+    <x:row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B88" s="0" t="s">
         <x:v>276</x:v>
       </x:c>
@@ -11553,7 +11355,7 @@
         <x:v>278</x:v>
       </x:c>
     </x:row>
-    <x:row r="89" spans="1:11">
+    <x:row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B89" s="0" t="s">
         <x:v>279</x:v>
       </x:c>
@@ -11573,7 +11375,7 @@
         <x:v>281</x:v>
       </x:c>
     </x:row>
-    <x:row r="90" spans="1:11">
+    <x:row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B90" s="0" t="s">
         <x:v>282</x:v>
       </x:c>
@@ -11593,7 +11395,7 @@
         <x:v>284</x:v>
       </x:c>
     </x:row>
-    <x:row r="91" spans="1:11">
+    <x:row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B91" s="0" t="s">
         <x:v>285</x:v>
       </x:c>
@@ -11613,7 +11415,7 @@
         <x:v>287</x:v>
       </x:c>
     </x:row>
-    <x:row r="92" spans="1:11">
+    <x:row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B92" s="0" t="s">
         <x:v>288</x:v>
       </x:c>
@@ -11633,7 +11435,7 @@
         <x:v>290</x:v>
       </x:c>
     </x:row>
-    <x:row r="93" spans="1:11">
+    <x:row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B93" s="0" t="s">
         <x:v>291</x:v>
       </x:c>
@@ -11653,7 +11455,7 @@
         <x:v>293</x:v>
       </x:c>
     </x:row>
-    <x:row r="94" spans="1:11">
+    <x:row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B94" s="0" t="s">
         <x:v>294</x:v>
       </x:c>
@@ -11673,7 +11475,7 @@
         <x:v>296</x:v>
       </x:c>
     </x:row>
-    <x:row r="95" spans="1:11">
+    <x:row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B95" s="0" t="s">
         <x:v>297</x:v>
       </x:c>
@@ -11693,7 +11495,7 @@
         <x:v>299</x:v>
       </x:c>
     </x:row>
-    <x:row r="96" spans="1:11">
+    <x:row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B96" s="0" t="s">
         <x:v>300</x:v>
       </x:c>
@@ -11713,7 +11515,7 @@
         <x:v>302</x:v>
       </x:c>
     </x:row>
-    <x:row r="97" spans="1:11">
+    <x:row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B97" s="0" t="s">
         <x:v>303</x:v>
       </x:c>
@@ -11732,20 +11534,8 @@
       <x:c r="G97" s="0" t="s">
         <x:v>305</x:v>
       </x:c>
-      <x:c r="H97" s="0" t="s">
-        <x:v>435</x:v>
-      </x:c>
-      <x:c r="I97" s="0" t="s">
-        <x:v>436</x:v>
-      </x:c>
-      <x:c r="J97" s="0" t="s">
-        <x:v>407</x:v>
-      </x:c>
-      <x:c r="K97" s="0" t="s">
-        <x:v>437</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="98" spans="1:11">
+    </x:row>
+    <x:row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B98" s="0" t="s">
         <x:v>306</x:v>
       </x:c>
@@ -11765,7 +11555,7 @@
         <x:v>308</x:v>
       </x:c>
     </x:row>
-    <x:row r="99" spans="1:11">
+    <x:row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B99" s="0" t="s">
         <x:v>309</x:v>
       </x:c>
@@ -11784,20 +11574,8 @@
       <x:c r="G99" s="0" t="s">
         <x:v>311</x:v>
       </x:c>
-      <x:c r="H99" s="0" t="s">
-        <x:v>438</x:v>
-      </x:c>
-      <x:c r="I99" s="0" t="s">
-        <x:v>439</x:v>
-      </x:c>
-      <x:c r="J99" s="0" t="s">
-        <x:v>427</x:v>
-      </x:c>
-      <x:c r="K99" s="0" t="s">
-        <x:v>440</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="100" spans="1:11">
+    </x:row>
+    <x:row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B100" s="0" t="s">
         <x:v>312</x:v>
       </x:c>
@@ -11817,7 +11595,7 @@
         <x:v>314</x:v>
       </x:c>
     </x:row>
-    <x:row r="101" spans="1:11">
+    <x:row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B101" s="0" t="s">
         <x:v>315</x:v>
       </x:c>
@@ -11837,7 +11615,7 @@
         <x:v>317</x:v>
       </x:c>
     </x:row>
-    <x:row r="102" spans="1:11">
+    <x:row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B102" s="0" t="s">
         <x:v>318</x:v>
       </x:c>
@@ -11857,7 +11635,7 @@
         <x:v>320</x:v>
       </x:c>
     </x:row>
-    <x:row r="103" spans="1:11">
+    <x:row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B103" s="0" t="s">
         <x:v>321</x:v>
       </x:c>
@@ -11877,7 +11655,7 @@
         <x:v>323</x:v>
       </x:c>
     </x:row>
-    <x:row r="104" spans="1:11">
+    <x:row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B104" s="0" t="s">
         <x:v>324</x:v>
       </x:c>
@@ -11897,7 +11675,7 @@
         <x:v>326</x:v>
       </x:c>
     </x:row>
-    <x:row r="105" spans="1:11">
+    <x:row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B105" s="0" t="s">
         <x:v>327</x:v>
       </x:c>
@@ -11917,7 +11695,7 @@
         <x:v>329</x:v>
       </x:c>
     </x:row>
-    <x:row r="106" spans="1:11">
+    <x:row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B106" s="0" t="s">
         <x:v>330</x:v>
       </x:c>
@@ -11937,7 +11715,7 @@
         <x:v>332</x:v>
       </x:c>
     </x:row>
-    <x:row r="107" spans="1:11">
+    <x:row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B107" s="0" t="s">
         <x:v>333</x:v>
       </x:c>
@@ -11957,7 +11735,7 @@
         <x:v>335</x:v>
       </x:c>
     </x:row>
-    <x:row r="108" spans="1:11">
+    <x:row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B108" s="0" t="s">
         <x:v>336</x:v>
       </x:c>
@@ -11977,7 +11755,7 @@
         <x:v>338</x:v>
       </x:c>
     </x:row>
-    <x:row r="109" spans="1:11">
+    <x:row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B109" s="0" t="s">
         <x:v>339</x:v>
       </x:c>
@@ -11997,7 +11775,7 @@
         <x:v>341</x:v>
       </x:c>
     </x:row>
-    <x:row r="110" spans="1:11">
+    <x:row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B110" s="0" t="s">
         <x:v>342</x:v>
       </x:c>
@@ -12016,20 +11794,8 @@
       <x:c r="G110" s="0" t="s">
         <x:v>344</x:v>
       </x:c>
-      <x:c r="H110" s="0" t="s">
-        <x:v>441</x:v>
-      </x:c>
-      <x:c r="I110" s="0" t="s">
-        <x:v>442</x:v>
-      </x:c>
-      <x:c r="J110" s="0" t="s">
-        <x:v>427</x:v>
-      </x:c>
-      <x:c r="K110" s="0" t="s">
-        <x:v>443</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="111" spans="1:11">
+    </x:row>
+    <x:row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B111" s="0" t="s">
         <x:v>345</x:v>
       </x:c>
@@ -12049,7 +11815,7 @@
         <x:v>275</x:v>
       </x:c>
     </x:row>
-    <x:row r="112" spans="1:11">
+    <x:row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B112" s="0" t="s">
         <x:v>347</x:v>
       </x:c>
@@ -12069,7 +11835,7 @@
         <x:v>349</x:v>
       </x:c>
     </x:row>
-    <x:row r="113" spans="1:11">
+    <x:row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B113" s="0" t="s">
         <x:v>350</x:v>
       </x:c>
@@ -12089,7 +11855,7 @@
         <x:v>352</x:v>
       </x:c>
     </x:row>
-    <x:row r="114" spans="1:11">
+    <x:row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B114" s="0" t="s">
         <x:v>353</x:v>
       </x:c>
@@ -12109,7 +11875,7 @@
         <x:v>355</x:v>
       </x:c>
     </x:row>
-    <x:row r="115" spans="1:11">
+    <x:row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B115" s="0" t="s">
         <x:v>356</x:v>
       </x:c>
@@ -12129,7 +11895,7 @@
         <x:v>358</x:v>
       </x:c>
     </x:row>
-    <x:row r="116" spans="1:11">
+    <x:row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B116" s="0" t="s">
         <x:v>359</x:v>
       </x:c>
@@ -12148,20 +11914,8 @@
       <x:c r="G116" s="0" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="H116" s="0" t="s">
-        <x:v>444</x:v>
-      </x:c>
-      <x:c r="I116" s="0" t="s">
-        <x:v>445</x:v>
-      </x:c>
-      <x:c r="J116" s="0" t="s">
-        <x:v>400</x:v>
-      </x:c>
-      <x:c r="K116" s="0" t="s">
-        <x:v>446</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="117" spans="1:11">
+    </x:row>
+    <x:row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B117" s="0" t="s">
         <x:v>361</x:v>
       </x:c>
@@ -12181,7 +11935,7 @@
         <x:v>363</x:v>
       </x:c>
     </x:row>
-    <x:row r="118" spans="1:11">
+    <x:row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B118" s="0" t="s">
         <x:v>364</x:v>
       </x:c>
@@ -12201,7 +11955,7 @@
         <x:v>366</x:v>
       </x:c>
     </x:row>
-    <x:row r="119" spans="1:11">
+    <x:row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B119" s="0" t="s">
         <x:v>367</x:v>
       </x:c>
@@ -12221,7 +11975,7 @@
         <x:v>369</x:v>
       </x:c>
     </x:row>
-    <x:row r="120" spans="1:11">
+    <x:row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B120" s="0" t="s">
         <x:v>370</x:v>
       </x:c>
@@ -12240,20 +11994,8 @@
       <x:c r="G120" s="0" t="s">
         <x:v>372</x:v>
       </x:c>
-      <x:c r="H120" s="0" t="s">
-        <x:v>447</x:v>
-      </x:c>
-      <x:c r="I120" s="0" t="s">
-        <x:v>448</x:v>
-      </x:c>
-      <x:c r="J120" s="0" t="s">
-        <x:v>427</x:v>
-      </x:c>
-      <x:c r="K120" s="0" t="s">
-        <x:v>449</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="121" spans="1:11">
+    </x:row>
+    <x:row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B121" s="0" t="s">
         <x:v>373</x:v>
       </x:c>
@@ -12273,7 +12015,7 @@
         <x:v>375</x:v>
       </x:c>
     </x:row>
-    <x:row r="122" spans="1:11">
+    <x:row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B122" s="0" t="s">
         <x:v>376</x:v>
       </x:c>
@@ -12293,7 +12035,7 @@
         <x:v>378</x:v>
       </x:c>
     </x:row>
-    <x:row r="123" spans="1:11">
+    <x:row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B123" s="0" t="s">
         <x:v>379</x:v>
       </x:c>
@@ -12313,7 +12055,7 @@
         <x:v>381</x:v>
       </x:c>
     </x:row>
-    <x:row r="124" spans="1:11">
+    <x:row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B124" s="0" t="s">
         <x:v>382</x:v>
       </x:c>
@@ -12332,20 +12074,8 @@
       <x:c r="G124" s="0" t="s">
         <x:v>384</x:v>
       </x:c>
-      <x:c r="H124" s="0" t="s">
-        <x:v>450</x:v>
-      </x:c>
-      <x:c r="I124" s="0" t="s">
-        <x:v>451</x:v>
-      </x:c>
-      <x:c r="J124" s="0" t="s">
-        <x:v>407</x:v>
-      </x:c>
-      <x:c r="K124" s="0" t="s">
-        <x:v>452</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="125" spans="1:11">
+    </x:row>
+    <x:row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B125" s="0" t="s">
         <x:v>385</x:v>
       </x:c>
@@ -12365,7 +12095,7 @@
         <x:v>387</x:v>
       </x:c>
     </x:row>
-    <x:row r="126" spans="1:11">
+    <x:row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B126" s="0" t="s">
         <x:v>388</x:v>
       </x:c>
@@ -12385,7 +12115,7 @@
         <x:v>390</x:v>
       </x:c>
     </x:row>
-    <x:row r="127" spans="1:11">
+    <x:row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <x:c r="B127" s="0" t="s">
         <x:v>391</x:v>
       </x:c>
@@ -12406,9 +12136,10 @@
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:phoneticPr fontId="1" type="noConversion"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" errors="displayed" r:id="rId1"/>
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
